--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36AE57-5668-4854-889A-F86E8083DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E6F26-2DEE-4B64-A234-06B45446E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="261">
   <si>
     <t>COMPTE DE RESULTAT</t>
   </si>
@@ -1019,6 +1019,9 @@
   <si>
     <t>Rating</t>
   </si>
+  <si>
+    <t>Calcul des ratios de rentabilite financiere</t>
+  </si>
 </sst>
 </file>
 
@@ -1468,13 +1471,13 @@
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4525,6 +4528,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$812:$H$812</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1531398986088364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.220736712600393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1788582795715932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1254883613586362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1148662897673767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925644426664209</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4590,6 +4615,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$813:$H$813</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0697338474897862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1109917763984805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0708211761241921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0245664425152976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0130442247039764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.005684862555543</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4655,6 +4702,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$814:$H$814</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3753710296306956E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11088925349494733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4262052158349547E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4229129432682039E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3746877403999601E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5189490918115136E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4672,7 +4741,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -4982,6 +5050,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$818:$H$818</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0586197859193895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0223029148447502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9760206569180726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96680922333219632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94746911800077815</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5047,6 +5137,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$819:$H$819</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0385684055950077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0010164478173309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95777696940180268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94700586232843209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94012624253730115</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5112,6 +5224,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$820:$H$820</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7393380397716363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85111990982417807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0074571210705303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68618559140602231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55195988993527723</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5129,7 +5263,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -7318,28 +7451,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$680:$H$680</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.0914383363544616E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.292159259540208E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.766422294035696E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6172323597542511E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.464415787529982E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.5387050627860515E-4</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7405,28 +7516,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$681:$H$681</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.27737353047974117</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28420224823128731</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31045754145067639</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26408495630451601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28270138161927899</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.28988070954592915</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7492,28 +7581,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$682:$H$682</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.10345393660570551</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.788584615644691E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11673558201955436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2961801824630532E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1027839684397469</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10286319129321249</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7579,28 +7646,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$683:$H$683</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.7486125895126604E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3149483605448564E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0188090950744028E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4793343041348181E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8862676581036718E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6651801705595476E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7666,28 +7711,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$684:$H$684</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.8383946823251247E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.742958936343245E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0768948673020269E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9830674123441817E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9092710293353512E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.060123698600125E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7753,28 +7776,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$685:$H$685</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.050741640315946E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8525605813364673E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0658186483655749E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1611897611407266E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8101445751368614E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4826848074531841E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7792,6 +7793,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="102459871"/>
         <c:axId val="102450303"/>
@@ -8103,28 +8105,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$689:$H$689</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3884020292643717</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2183397772304267</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4935547332310894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0910705905112956</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7620492902521252</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8190,28 +8170,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$690:$H$690</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0246192120053248</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1192760207281265</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95209141206718084</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0192082176346202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.045091465809862</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8277,28 +8235,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$691:$H$691</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94617807082121685</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1283822138588042</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80192020281280596</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.99352399543274927</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99428977444575617</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8364,28 +8300,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$692:$H$692</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92456193173306744</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69909200393952764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43129264070741702</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67603575603502808</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63757647840907361</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8451,28 +8365,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$693:$H$693</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97513654694725949</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80160981919612917</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77716536709486461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.75793952162653777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79724050074664066</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8538,28 +8430,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$694:$H$694</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93503839972533553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67715293260678444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38062540131076766</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59334574623283942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48600798830661773</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8577,6 +8447,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="102459871"/>
         <c:axId val="102450303"/>
@@ -30428,10 +30299,10 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C678" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C839" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J712" sqref="J712"/>
+      <selection pane="bottomRight" activeCell="D840" sqref="D840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -30441,10 +30312,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="81"/>
       <c r="C1" t="s">
         <v>155</v>
       </c>
@@ -30453,8 +30324,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
       <c r="C2" t="s">
         <v>173</v>
       </c>
@@ -30464,8 +30335,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" t="s">
         <v>174</v>
       </c>
@@ -30543,8 +30414,8 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -30568,7 +30439,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -30580,7 +30451,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -30592,7 +30463,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
@@ -30622,7 +30493,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -30641,7 +30512,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>161</v>
       </c>
@@ -30671,7 +30542,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -30695,7 +30566,7 @@
         <v>62232380967</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -30719,7 +30590,7 @@
         <v>31544326031</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -30743,7 +30614,7 @@
         <v>2618830549</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
@@ -30773,7 +30644,7 @@
         <v>96477917195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -30797,7 +30668,7 @@
         <v>-848510337</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
@@ -30821,7 +30692,7 @@
         <v>5370554971</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -30833,7 +30704,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
@@ -30857,7 +30728,7 @@
         <v>479628867</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
@@ -30869,7 +30740,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
@@ -30893,7 +30764,7 @@
         <v>22146096713</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -30917,7 +30788,7 @@
         <v>766368299</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
@@ -30941,7 +30812,7 @@
         <v>21878392994</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
@@ -30953,7 +30824,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
@@ -30977,7 +30848,7 @@
         <v>1569935178</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
@@ -31001,7 +30872,7 @@
         <v>22381142804</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
@@ -31025,7 +30896,7 @@
         <v>1855008465</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>23</v>
       </c>
@@ -31049,7 +30920,7 @@
         <v>4448295749</v>
       </c>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>24</v>
       </c>
@@ -31079,7 +30950,7 @@
         <v>27967087092</v>
       </c>
     </row>
-    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>25</v>
       </c>
@@ -31103,7 +30974,7 @@
         <v>18043060640</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>26</v>
       </c>
@@ -31133,7 +31004,7 @@
         <v>9924026452</v>
       </c>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>27</v>
       </c>
@@ -31157,7 +31028,7 @@
         <v>910496359</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>28</v>
       </c>
@@ -31169,7 +31040,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
@@ -31193,7 +31064,7 @@
         <v>7298433321</v>
       </c>
     </row>
-    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>30</v>
       </c>
@@ -31223,7 +31094,7 @@
         <v>3536089490</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
@@ -31247,7 +31118,7 @@
         <v>1520772020</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
@@ -31259,7 +31130,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
@@ -31271,7 +31142,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>34</v>
       </c>
@@ -31283,7 +31154,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>35</v>
       </c>
@@ -31307,7 +31178,7 @@
         <v>684809720</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>36</v>
       </c>
@@ -31319,7 +31190,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>37</v>
       </c>
@@ -31333,7 +31204,7 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>38</v>
       </c>
@@ -31363,7 +31234,7 @@
         <v>835962300</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>39</v>
       </c>
@@ -31393,7 +31264,7 @@
         <v>4372051790</v>
       </c>
     </row>
-    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -31417,7 +31288,7 @@
         <v>17480486</v>
       </c>
     </row>
-    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -31435,7 +31306,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
@@ -31453,7 +31324,7 @@
         <v>663392026</v>
       </c>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>43</v>
       </c>
@@ -31477,7 +31348,7 @@
         <v>245241147</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>44</v>
       </c>
@@ -31495,7 +31366,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>45</v>
       </c>
@@ -31507,7 +31378,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>46</v>
       </c>
@@ -31525,7 +31396,7 @@
         <v>907549281</v>
       </c>
     </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>162</v>
       </c>
@@ -31555,7 +31426,7 @@
         <v>-471917916</v>
       </c>
     </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>48</v>
       </c>
@@ -31567,7 +31438,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>163</v>
       </c>
@@ -31597,7 +31468,7 @@
         <v>3900133874</v>
       </c>
     </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>49</v>
       </c>
@@ -31621,7 +31492,7 @@
         <v>947790266</v>
       </c>
     </row>
-    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>50</v>
       </c>
@@ -31651,7 +31522,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
@@ -31661,7 +31532,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>164</v>
       </c>
@@ -31691,7 +31562,7 @@
         <v>0.24301480324005925</v>
       </c>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>165</v>
       </c>
@@ -31721,7 +31592,7 @@
         <v>1.69259422091971E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>166</v>
       </c>
@@ -31751,6 +31622,7 @@
         <v>67209199390</v>
       </c>
     </row>
+    <row r="65" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>177</v>
@@ -31763,8 +31635,8 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>52</v>
       </c>
@@ -31776,7 +31648,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>54</v>
       </c>
@@ -31788,7 +31660,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>55</v>
       </c>
@@ -31800,7 +31672,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>56</v>
       </c>
@@ -31812,7 +31684,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>53</v>
       </c>
@@ -31842,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>58</v>
       </c>
@@ -31854,7 +31726,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>59</v>
       </c>
@@ -31878,7 +31750,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>60</v>
       </c>
@@ -31890,7 +31762,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>61</v>
       </c>
@@ -31902,7 +31774,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>57</v>
       </c>
@@ -31932,7 +31804,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>63</v>
       </c>
@@ -31956,7 +31828,7 @@
         <v>578160031</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>64</v>
       </c>
@@ -31980,7 +31852,7 @@
         <v>2351765785</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>65</v>
       </c>
@@ -32004,7 +31876,7 @@
         <v>10345592798</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>66</v>
       </c>
@@ -32028,7 +31900,7 @@
         <v>17069519870</v>
       </c>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
         <v>67</v>
       </c>
@@ -32052,7 +31924,7 @@
         <v>5391085031</v>
       </c>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>68</v>
       </c>
@@ -32076,7 +31948,7 @@
         <v>311070713</v>
       </c>
     </row>
-    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>62</v>
       </c>
@@ -32106,7 +31978,7 @@
         <v>36047194228</v>
       </c>
     </row>
-    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>70</v>
       </c>
@@ -32130,7 +32002,7 @@
         <v>219700000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>71</v>
       </c>
@@ -32154,7 +32026,7 @@
         <v>1342652707</v>
       </c>
     </row>
-    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>69</v>
       </c>
@@ -32184,7 +32056,7 @@
         <v>1562352707</v>
       </c>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>72</v>
       </c>
@@ -32214,7 +32086,7 @@
         <v>37927999062</v>
       </c>
     </row>
-    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>73</v>
       </c>
@@ -32226,7 +32098,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
         <v>75</v>
       </c>
@@ -32238,7 +32110,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
         <v>76</v>
       </c>
@@ -32264,7 +32136,7 @@
         <v>10488885703</v>
       </c>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>77</v>
       </c>
@@ -32280,7 +32152,7 @@
         <v>3596349024</v>
       </c>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>78</v>
       </c>
@@ -32304,7 +32176,7 @@
         <v>1863430506</v>
       </c>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>74</v>
       </c>
@@ -32334,7 +32206,7 @@
         <v>15948665233</v>
       </c>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>80</v>
       </c>
@@ -32358,7 +32230,7 @@
         <v>9334294925</v>
       </c>
     </row>
-    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>81</v>
       </c>
@@ -32382,7 +32254,7 @@
         <v>127642859261</v>
       </c>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
         <v>82</v>
       </c>
@@ -32406,7 +32278,7 @@
         <v>41178699844</v>
       </c>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>79</v>
       </c>
@@ -32436,7 +32308,7 @@
         <v>178155854030</v>
       </c>
     </row>
-    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>83</v>
       </c>
@@ -32466,7 +32338,7 @@
         <v>194104519263</v>
       </c>
     </row>
-    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>84</v>
       </c>
@@ -32478,7 +32350,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>85</v>
       </c>
@@ -32490,7 +32362,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>86</v>
       </c>
@@ -32514,7 +32386,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>87</v>
       </c>
@@ -32544,7 +32416,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
         <v>88</v>
       </c>
@@ -32556,7 +32428,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>89</v>
       </c>
@@ -32586,7 +32458,7 @@
         <v>238492326368</v>
       </c>
     </row>
-    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="12"/>
@@ -32596,7 +32468,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>90</v>
       </c>
@@ -32608,7 +32480,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>91</v>
       </c>
@@ -32632,7 +32504,7 @@
         <v>4500000000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
         <v>92</v>
       </c>
@@ -32644,7 +32516,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
         <v>93</v>
       </c>
@@ -32668,7 +32540,7 @@
         <v>255906342</v>
       </c>
     </row>
-    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>94</v>
       </c>
@@ -32692,7 +32564,7 @@
         <v>1045087734</v>
       </c>
     </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>95</v>
       </c>
@@ -32716,7 +32588,7 @@
         <v>909800000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>96</v>
       </c>
@@ -32740,7 +32612,7 @@
         <v>2911725555</v>
       </c>
     </row>
-    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
         <v>97</v>
       </c>
@@ -32764,7 +32636,7 @@
         <v>949752668</v>
       </c>
     </row>
-    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>98</v>
       </c>
@@ -32788,7 +32660,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>99</v>
       </c>
@@ -32800,7 +32672,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>100</v>
       </c>
@@ -32818,7 +32690,7 @@
         <v>936451762</v>
       </c>
     </row>
-    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>101</v>
       </c>
@@ -32848,7 +32720,7 @@
         <v>14461067669</v>
       </c>
     </row>
-    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
         <v>102</v>
       </c>
@@ -32872,7 +32744,7 @@
         <v>30647275656</v>
       </c>
     </row>
-    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
         <v>103</v>
       </c>
@@ -32892,7 +32764,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
         <v>104</v>
       </c>
@@ -32908,7 +32780,7 @@
         <v>3872923226</v>
       </c>
     </row>
-    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
         <v>105</v>
       </c>
@@ -32928,7 +32800,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
         <v>106</v>
       </c>
@@ -32952,7 +32824,7 @@
         <v>5938979788</v>
       </c>
     </row>
-    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
         <v>107</v>
       </c>
@@ -32982,7 +32854,7 @@
         <v>40459178670</v>
       </c>
     </row>
-    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>108</v>
       </c>
@@ -33012,7 +32884,7 @@
         <v>54920246339</v>
       </c>
     </row>
-    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
         <v>168</v>
       </c>
@@ -33032,7 +32904,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
         <v>110</v>
       </c>
@@ -33056,7 +32928,7 @@
         <v>20822193744</v>
       </c>
     </row>
-    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
         <v>111</v>
       </c>
@@ -33080,7 +32952,7 @@
         <v>85466357355</v>
       </c>
     </row>
-    <row r="129" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>112</v>
       </c>
@@ -33096,7 +32968,7 @@
         <v>17157242518</v>
       </c>
     </row>
-    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
         <v>113</v>
       </c>
@@ -33116,7 +32988,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
     </row>
-    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
         <v>114</v>
       </c>
@@ -33136,7 +33008,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
     </row>
-    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>115</v>
       </c>
@@ -33160,7 +33032,7 @@
         <v>7086990075</v>
       </c>
     </row>
-    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>116</v>
       </c>
@@ -33172,7 +33044,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
     </row>
-    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>117</v>
       </c>
@@ -33202,7 +33074,7 @@
         <v>130532783692</v>
       </c>
     </row>
-    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>118</v>
       </c>
@@ -33214,7 +33086,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>119</v>
       </c>
@@ -33238,7 +33110,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
         <v>120</v>
       </c>
@@ -33268,7 +33140,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>121</v>
       </c>
@@ -33280,7 +33152,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
     </row>
-    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>122</v>
       </c>
@@ -33310,6 +33182,7 @@
         <v>238492326368</v>
       </c>
     </row>
+    <row r="140" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
         <v>178</v>
@@ -45124,19 +44997,19 @@
         <f t="shared" ref="D652:H652" si="95">D650-D651</f>
         <v>1154412307</v>
       </c>
-      <c r="E652" s="81">
+      <c r="E652" s="79">
         <f t="shared" si="95"/>
         <v>-26584733756</v>
       </c>
-      <c r="F652" s="81">
+      <c r="F652" s="79">
         <f t="shared" si="95"/>
         <v>-42778772996</v>
       </c>
-      <c r="G652" s="81">
+      <c r="G652" s="79">
         <f t="shared" si="95"/>
         <v>-42138213035</v>
       </c>
-      <c r="H652" s="81">
+      <c r="H652" s="79">
         <f t="shared" si="95"/>
         <v>-46579488294</v>
       </c>
@@ -45259,19 +45132,19 @@
         <f t="shared" ref="D659:H659" si="99">D652</f>
         <v>1154412307</v>
       </c>
-      <c r="E659" s="81">
+      <c r="E659" s="79">
         <f t="shared" si="99"/>
         <v>-26584733756</v>
       </c>
-      <c r="F659" s="81">
+      <c r="F659" s="79">
         <f t="shared" si="99"/>
         <v>-42778772996</v>
       </c>
-      <c r="G659" s="81">
+      <c r="G659" s="79">
         <f t="shared" si="99"/>
         <v>-42138213035</v>
       </c>
-      <c r="H659" s="81">
+      <c r="H659" s="79">
         <f t="shared" si="99"/>
         <v>-46579488294</v>
       </c>
@@ -45304,8 +45177,8 @@
       <c r="G676" s="40"/>
       <c r="H676" s="40"/>
     </row>
-    <row r="677" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="678" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="678" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A678" s="44" t="s">
         <v>208</v>
       </c>
@@ -45317,8 +45190,8 @@
       <c r="G678" s="43"/>
       <c r="H678" s="43"/>
     </row>
-    <row r="679" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="680" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="680" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A680" s="50" t="s">
         <v>210</v>
       </c>
@@ -45347,7 +45220,7 @@
         <v>8.5387050627860515E-4</v>
       </c>
     </row>
-    <row r="681" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A681" s="50" t="s">
         <v>213</v>
       </c>
@@ -45376,7 +45249,7 @@
         <v>0.28988070954592915</v>
       </c>
     </row>
-    <row r="682" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A682" s="50" t="s">
         <v>211</v>
       </c>
@@ -45405,7 +45278,7 @@
         <v>0.10286319129321249</v>
       </c>
     </row>
-    <row r="683" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A683" s="50" t="s">
         <v>212</v>
       </c>
@@ -45434,7 +45307,7 @@
         <v>3.6651801705595476E-2</v>
       </c>
     </row>
-    <row r="684" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A684" s="50" t="s">
         <v>214</v>
       </c>
@@ -45463,7 +45336,7 @@
         <v>3.060123698600125E-2</v>
       </c>
     </row>
-    <row r="685" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A685" s="50" t="s">
         <v>215</v>
       </c>
@@ -45492,8 +45365,8 @@
         <v>1.4826848074531841E-2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="687" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="687" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A687" s="44" t="s">
         <v>216</v>
       </c>
@@ -45505,8 +45378,8 @@
       <c r="G687" s="43"/>
       <c r="H687" s="43"/>
     </row>
-    <row r="688" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="689" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="689" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A689" s="50" t="s">
         <v>210</v>
       </c>
@@ -45535,7 +45408,7 @@
         <v>2.7620492902521252</v>
       </c>
     </row>
-    <row r="690" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A690" s="50" t="s">
         <v>213</v>
       </c>
@@ -45564,7 +45437,7 @@
         <v>1.045091465809862</v>
       </c>
     </row>
-    <row r="691" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A691" s="50" t="s">
         <v>211</v>
       </c>
@@ -45593,7 +45466,7 @@
         <v>0.99428977444575617</v>
       </c>
     </row>
-    <row r="692" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A692" s="50" t="s">
         <v>212</v>
       </c>
@@ -45622,7 +45495,7 @@
         <v>0.63757647840907361</v>
       </c>
     </row>
-    <row r="693" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A693" s="50" t="s">
         <v>214</v>
       </c>
@@ -45651,7 +45524,7 @@
         <v>0.79724050074664066</v>
       </c>
     </row>
-    <row r="694" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A694" s="50" t="s">
         <v>215</v>
       </c>
@@ -45680,8 +45553,8 @@
         <v>0.48600798830661773</v>
       </c>
     </row>
-    <row r="695" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="696" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="696" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A696" s="44" t="s">
         <v>217</v>
       </c>
@@ -45693,20 +45566,21 @@
       <c r="G696" s="43"/>
       <c r="H696" s="43"/>
     </row>
-    <row r="697" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="698" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="699" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="700" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="701" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="702" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="703" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="704" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="705" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="706" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="707" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="708" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="709" spans="1:8" ht="21.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="710" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="697" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="698" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="699" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="700" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="701" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="702" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="703" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="704" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="705" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="706" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="707" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="708" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="709" spans="1:8" ht="21.6" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="710" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="711" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="712" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A712" s="37" t="s">
         <v>218</v>
@@ -46009,7 +45883,7 @@
     <row r="743" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="744" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A744" s="44" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="B744" s="43"/>
       <c r="C744" s="43"/>
@@ -46608,8 +46482,8 @@
       <c r="G808" s="40"/>
       <c r="H808" s="40"/>
     </row>
-    <row r="809" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="810" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="810" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A810" s="44" t="s">
         <v>238</v>
       </c>
@@ -46621,8 +46495,8 @@
       <c r="G810" s="43"/>
       <c r="H810" s="43"/>
     </row>
-    <row r="811" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="812" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="812" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A812" s="41" t="s">
         <v>239</v>
       </c>
@@ -46651,7 +46525,7 @@
         <v>1.0925644426664209</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A813" s="41" t="s">
         <v>240</v>
       </c>
@@ -46680,7 +46554,7 @@
         <v>1.005684862555543</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A814" s="41" t="s">
         <v>241</v>
       </c>
@@ -46709,8 +46583,8 @@
         <v>3.5189490918115136E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="816" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="816" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A816" s="44" t="s">
         <v>242</v>
       </c>
@@ -46722,8 +46596,8 @@
       <c r="G816" s="43"/>
       <c r="H816" s="43"/>
     </row>
-    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="818" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A818" s="41" t="s">
         <v>239</v>
       </c>
@@ -46752,7 +46626,7 @@
         <v>0.94746911800077815</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A819" s="41" t="s">
         <v>240</v>
       </c>
@@ -46781,7 +46655,7 @@
         <v>0.94012624253730115</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A820" s="41" t="s">
         <v>241</v>
       </c>
@@ -46810,8 +46684,8 @@
         <v>0.55195988993527723</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="822" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="822" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A822" s="44" t="s">
         <v>243</v>
       </c>
@@ -46823,22 +46697,21 @@
       <c r="G822" s="43"/>
       <c r="H822" s="43"/>
     </row>
-    <row r="823" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="824" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="825" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="826" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="828" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="829" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="830" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="831" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="832" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="833" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="834" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="835" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="836" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="837" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="838" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="823" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="824" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="825" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="826" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="827" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="828" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="829" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="830" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="831" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="833" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="834" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="835" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="836" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="837" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="839" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
         <v>245</v>
@@ -47456,7 +47329,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47467,128 +47340,292 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47599,124 +47636,424 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -48016,7 +48353,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48027,212 +48364,128 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48243,504 +48496,124 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E6F26-2DEE-4B64-A234-06B45446E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE274CC-6371-46C7-A27E-7A0B8C06E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4528,28 +4528,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$812:$H$812</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1531398986088364</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.220736712600393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1788582795715932</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1254883613586362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1148662897673767</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0925644426664209</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4615,28 +4593,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$813:$H$813</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0697338474897862</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1109917763984805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0708211761241921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0245664425152976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0130442247039764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.005684862555543</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4702,28 +4658,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$814:$H$814</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.3753710296306956E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11088925349494733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4262052158349547E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4229129432682039E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3746877403999601E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5189490918115136E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4741,6 +4675,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -5050,28 +4985,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$818:$H$818</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0586197859193895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0223029148447502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9760206569180726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96680922333219632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94746911800077815</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5137,28 +5050,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$819:$H$819</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0385684055950077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0010164478173309</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95777696940180268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94700586232843209</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94012624253730115</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5224,28 +5115,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$820:$H$820</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7393380397716363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85111990982417807</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0074571210705303</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68618559140602231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55195988993527723</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5263,6 +5132,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -6927,6 +6797,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$656:$H$656</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81229774842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87928603572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87982585098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91269534900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98432703111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96477917195</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6992,6 +6884,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$657:$H$657</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>17273205729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24736387783</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21306074770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18091160852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18092278610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16992247277</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7057,6 +6971,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$658:$H$658</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14685609026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23581975476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47890808526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60869933848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60230491645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63571735571</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7122,6 +7058,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$659:$H$659</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2587596703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1154412307</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>-26584733756</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>-42778772996</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>-42138213035</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>-46579488294</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7139,7 +7097,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="733014896"/>
         <c:axId val="732989520"/>
@@ -30299,10 +30256,10 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C839" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C841" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D840" sqref="D840"/>
+      <selection pane="bottomRight" activeCell="E863" sqref="E863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -30414,8 +30371,8 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -30439,7 +30396,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -30451,7 +30408,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -30463,7 +30420,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
@@ -30493,7 +30450,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -30512,7 +30469,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>161</v>
       </c>
@@ -30542,7 +30499,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30523,7 @@
         <v>62232380967</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -30590,7 +30547,7 @@
         <v>31544326031</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -30614,7 +30571,7 @@
         <v>2618830549</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
@@ -30644,7 +30601,7 @@
         <v>96477917195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -30668,7 +30625,7 @@
         <v>-848510337</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
@@ -30692,7 +30649,7 @@
         <v>5370554971</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -30704,7 +30661,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
@@ -30728,7 +30685,7 @@
         <v>479628867</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
@@ -30740,7 +30697,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
@@ -30764,7 +30721,7 @@
         <v>22146096713</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -30788,7 +30745,7 @@
         <v>766368299</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
@@ -30812,7 +30769,7 @@
         <v>21878392994</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
@@ -30824,7 +30781,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
@@ -30848,7 +30805,7 @@
         <v>1569935178</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
@@ -30872,7 +30829,7 @@
         <v>22381142804</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
@@ -30896,7 +30853,7 @@
         <v>1855008465</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>23</v>
       </c>
@@ -30920,7 +30877,7 @@
         <v>4448295749</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>24</v>
       </c>
@@ -30950,7 +30907,7 @@
         <v>27967087092</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>25</v>
       </c>
@@ -30974,7 +30931,7 @@
         <v>18043060640</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>26</v>
       </c>
@@ -31004,7 +30961,7 @@
         <v>9924026452</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>27</v>
       </c>
@@ -31028,7 +30985,7 @@
         <v>910496359</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>28</v>
       </c>
@@ -31040,7 +30997,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
@@ -31064,7 +31021,7 @@
         <v>7298433321</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>30</v>
       </c>
@@ -31094,7 +31051,7 @@
         <v>3536089490</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
@@ -31118,7 +31075,7 @@
         <v>1520772020</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
@@ -31130,7 +31087,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
@@ -31142,7 +31099,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>34</v>
       </c>
@@ -31154,7 +31111,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>35</v>
       </c>
@@ -31178,7 +31135,7 @@
         <v>684809720</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>36</v>
       </c>
@@ -31190,7 +31147,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>37</v>
       </c>
@@ -31204,7 +31161,7 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>38</v>
       </c>
@@ -31234,7 +31191,7 @@
         <v>835962300</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>39</v>
       </c>
@@ -31264,7 +31221,7 @@
         <v>4372051790</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -31288,7 +31245,7 @@
         <v>17480486</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -31306,7 +31263,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
@@ -31324,7 +31281,7 @@
         <v>663392026</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>43</v>
       </c>
@@ -31348,7 +31305,7 @@
         <v>245241147</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>44</v>
       </c>
@@ -31366,7 +31323,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>45</v>
       </c>
@@ -31378,7 +31335,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>46</v>
       </c>
@@ -31396,7 +31353,7 @@
         <v>907549281</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>162</v>
       </c>
@@ -31426,7 +31383,7 @@
         <v>-471917916</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>48</v>
       </c>
@@ -31438,7 +31395,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>163</v>
       </c>
@@ -31468,7 +31425,7 @@
         <v>3900133874</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>49</v>
       </c>
@@ -31492,7 +31449,7 @@
         <v>947790266</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>50</v>
       </c>
@@ -31522,7 +31479,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
@@ -31532,7 +31489,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>164</v>
       </c>
@@ -31562,7 +31519,7 @@
         <v>0.24301480324005925</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>165</v>
       </c>
@@ -31592,7 +31549,7 @@
         <v>1.69259422091971E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>166</v>
       </c>
@@ -31622,7 +31579,6 @@
         <v>67209199390</v>
       </c>
     </row>
-    <row r="65" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>177</v>
@@ -31635,8 +31591,8 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>52</v>
       </c>
@@ -31648,7 +31604,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>54</v>
       </c>
@@ -31660,7 +31616,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>55</v>
       </c>
@@ -31672,7 +31628,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>56</v>
       </c>
@@ -31684,7 +31640,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>53</v>
       </c>
@@ -31714,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>58</v>
       </c>
@@ -31726,7 +31682,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>59</v>
       </c>
@@ -31750,7 +31706,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>60</v>
       </c>
@@ -31762,7 +31718,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>61</v>
       </c>
@@ -31774,7 +31730,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>57</v>
       </c>
@@ -31804,7 +31760,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>63</v>
       </c>
@@ -31828,7 +31784,7 @@
         <v>578160031</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>64</v>
       </c>
@@ -31852,7 +31808,7 @@
         <v>2351765785</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>65</v>
       </c>
@@ -31876,7 +31832,7 @@
         <v>10345592798</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>66</v>
       </c>
@@ -31900,7 +31856,7 @@
         <v>17069519870</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
         <v>67</v>
       </c>
@@ -31924,7 +31880,7 @@
         <v>5391085031</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>68</v>
       </c>
@@ -31948,7 +31904,7 @@
         <v>311070713</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>62</v>
       </c>
@@ -31978,7 +31934,7 @@
         <v>36047194228</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>70</v>
       </c>
@@ -32002,7 +31958,7 @@
         <v>219700000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>71</v>
       </c>
@@ -32026,7 +31982,7 @@
         <v>1342652707</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>69</v>
       </c>
@@ -32056,7 +32012,7 @@
         <v>1562352707</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>72</v>
       </c>
@@ -32086,7 +32042,7 @@
         <v>37927999062</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>73</v>
       </c>
@@ -32098,7 +32054,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
         <v>75</v>
       </c>
@@ -32110,7 +32066,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
         <v>76</v>
       </c>
@@ -32136,7 +32092,7 @@
         <v>10488885703</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>77</v>
       </c>
@@ -32152,7 +32108,7 @@
         <v>3596349024</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>78</v>
       </c>
@@ -32176,7 +32132,7 @@
         <v>1863430506</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>74</v>
       </c>
@@ -32206,7 +32162,7 @@
         <v>15948665233</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>80</v>
       </c>
@@ -32230,7 +32186,7 @@
         <v>9334294925</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>81</v>
       </c>
@@ -32254,7 +32210,7 @@
         <v>127642859261</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
         <v>82</v>
       </c>
@@ -32278,7 +32234,7 @@
         <v>41178699844</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>79</v>
       </c>
@@ -32308,7 +32264,7 @@
         <v>178155854030</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>83</v>
       </c>
@@ -32338,7 +32294,7 @@
         <v>194104519263</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>84</v>
       </c>
@@ -32350,7 +32306,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>85</v>
       </c>
@@ -32362,7 +32318,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>86</v>
       </c>
@@ -32386,7 +32342,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>87</v>
       </c>
@@ -32416,7 +32372,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
         <v>88</v>
       </c>
@@ -32428,7 +32384,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>89</v>
       </c>
@@ -32458,7 +32414,7 @@
         <v>238492326368</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="12"/>
@@ -32468,7 +32424,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>90</v>
       </c>
@@ -32480,7 +32436,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>91</v>
       </c>
@@ -32504,7 +32460,7 @@
         <v>4500000000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
         <v>92</v>
       </c>
@@ -32516,7 +32472,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
         <v>93</v>
       </c>
@@ -32540,7 +32496,7 @@
         <v>255906342</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>94</v>
       </c>
@@ -32564,7 +32520,7 @@
         <v>1045087734</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>95</v>
       </c>
@@ -32588,7 +32544,7 @@
         <v>909800000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>96</v>
       </c>
@@ -32612,7 +32568,7 @@
         <v>2911725555</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
         <v>97</v>
       </c>
@@ -32636,7 +32592,7 @@
         <v>949752668</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>98</v>
       </c>
@@ -32660,7 +32616,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>99</v>
       </c>
@@ -32672,7 +32628,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>100</v>
       </c>
@@ -32690,7 +32646,7 @@
         <v>936451762</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>101</v>
       </c>
@@ -32720,7 +32676,7 @@
         <v>14461067669</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
         <v>102</v>
       </c>
@@ -32744,7 +32700,7 @@
         <v>30647275656</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
         <v>103</v>
       </c>
@@ -32764,7 +32720,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
         <v>104</v>
       </c>
@@ -32780,7 +32736,7 @@
         <v>3872923226</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
         <v>105</v>
       </c>
@@ -32800,7 +32756,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
         <v>106</v>
       </c>
@@ -32824,7 +32780,7 @@
         <v>5938979788</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
         <v>107</v>
       </c>
@@ -32854,7 +32810,7 @@
         <v>40459178670</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>108</v>
       </c>
@@ -32884,7 +32840,7 @@
         <v>54920246339</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
         <v>168</v>
       </c>
@@ -32904,7 +32860,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
         <v>110</v>
       </c>
@@ -32928,7 +32884,7 @@
         <v>20822193744</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
         <v>111</v>
       </c>
@@ -32952,7 +32908,7 @@
         <v>85466357355</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>112</v>
       </c>
@@ -32968,7 +32924,7 @@
         <v>17157242518</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
         <v>113</v>
       </c>
@@ -32988,7 +32944,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
     </row>
-    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
         <v>114</v>
       </c>
@@ -33008,7 +32964,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
     </row>
-    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>115</v>
       </c>
@@ -33032,7 +32988,7 @@
         <v>7086990075</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>116</v>
       </c>
@@ -33044,7 +33000,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
     </row>
-    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>117</v>
       </c>
@@ -33074,7 +33030,7 @@
         <v>130532783692</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>118</v>
       </c>
@@ -33086,7 +33042,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>119</v>
       </c>
@@ -33110,7 +33066,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
         <v>120</v>
       </c>
@@ -33140,7 +33096,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>121</v>
       </c>
@@ -33152,7 +33108,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
     </row>
-    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>122</v>
       </c>
@@ -33182,7 +33138,6 @@
         <v>238492326368</v>
       </c>
     </row>
-    <row r="140" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
         <v>178</v>
@@ -44378,8 +44333,8 @@
       <c r="G593" s="40"/>
       <c r="H593" s="40"/>
     </row>
-    <row r="594" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="595" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="595" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A595" s="44" t="s">
         <v>191</v>
       </c>
@@ -44492,8 +44447,8 @@
     <row r="610" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="611" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="612" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="613" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="614" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="614" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A614" s="44" t="s">
         <v>193</v>
       </c>
@@ -44682,8 +44637,8 @@
     <row r="632" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="633" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="634" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="635" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="636" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A636" s="44" t="s">
         <v>194</v>
       </c>
@@ -44695,8 +44650,8 @@
       <c r="G636" s="43"/>
       <c r="H636" s="43"/>
     </row>
-    <row r="637" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="638" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="638" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A638" s="57" t="s">
         <v>195</v>
       </c>
@@ -44708,8 +44663,8 @@
       <c r="G638" s="54"/>
       <c r="H638" s="54"/>
     </row>
-    <row r="639" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="640" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="640" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A640" s="55" t="s">
         <v>196</v>
       </c>
@@ -44738,7 +44693,7 @@
         <v>37927999062</v>
       </c>
     </row>
-    <row r="641" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A641" s="55" t="s">
         <v>197</v>
       </c>
@@ -44767,7 +44722,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="56" t="s">
         <v>198</v>
       </c>
@@ -44796,7 +44751,7 @@
         <v>101499734633</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A643" s="55" t="s">
         <v>199</v>
       </c>
@@ -44825,7 +44780,7 @@
         <v>14461067669</v>
       </c>
     </row>
-    <row r="644" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A644" s="55" t="s">
         <v>200</v>
       </c>
@@ -44854,7 +44809,7 @@
         <v>87038666964</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="56" t="s">
         <v>201</v>
       </c>
@@ -44883,7 +44838,7 @@
         <v>101499734633</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A646" s="58" t="s">
         <v>202</v>
       </c>
@@ -44912,8 +44867,8 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="647" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="648" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="648" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A648" s="57" t="s">
         <v>203</v>
       </c>
@@ -44925,8 +44880,8 @@
       <c r="G648" s="54"/>
       <c r="H648" s="54"/>
     </row>
-    <row r="649" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="650" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="650" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A650" s="55" t="s">
         <v>204</v>
       </c>
@@ -44955,7 +44910,7 @@
         <v>16992247277</v>
       </c>
     </row>
-    <row r="651" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A651" s="55" t="s">
         <v>205</v>
       </c>
@@ -44984,7 +44939,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="56" t="s">
         <v>206</v>
       </c>
@@ -45014,8 +44969,8 @@
         <v>-46579488294</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="654" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="654" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A654" s="57" t="s">
         <v>207</v>
       </c>
@@ -45027,8 +44982,8 @@
       <c r="G654" s="54"/>
       <c r="H654" s="54"/>
     </row>
-    <row r="655" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="656" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="656" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A656" s="56" t="s">
         <v>10</v>
       </c>
@@ -45058,7 +45013,7 @@
         <v>96477917195</v>
       </c>
     </row>
-    <row r="657" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A657" s="55" t="str">
         <f>A650</f>
         <v>Fonds de roulement nette globale (FRNG)</v>
@@ -45088,7 +45043,7 @@
         <v>16992247277</v>
       </c>
     </row>
-    <row r="658" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A658" s="55" t="str">
         <f>A651</f>
         <v>Besoins de financement globale (BFG)</v>
@@ -45118,7 +45073,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="56" t="str">
         <f>A652</f>
         <v>Tresorerie nette (TN)</v>
@@ -45149,22 +45104,21 @@
         <v>-46579488294</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="661" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="662" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="663" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="664" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="665" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="666" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="667" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="668" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="669" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="670" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="671" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="672" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="673" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="674" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="675" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="660" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="661" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="662" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="663" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="664" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="665" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="666" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="667" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="668" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="669" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="670" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="671" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="672" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="673" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="674" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="676" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A676" s="37" t="s">
         <v>209</v>
@@ -46482,8 +46436,8 @@
       <c r="G808" s="40"/>
       <c r="H808" s="40"/>
     </row>
-    <row r="809" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="810" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="810" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A810" s="44" t="s">
         <v>238</v>
       </c>
@@ -46495,8 +46449,8 @@
       <c r="G810" s="43"/>
       <c r="H810" s="43"/>
     </row>
-    <row r="811" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="812" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="812" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A812" s="41" t="s">
         <v>239</v>
       </c>
@@ -46525,7 +46479,7 @@
         <v>1.0925644426664209</v>
       </c>
     </row>
-    <row r="813" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A813" s="41" t="s">
         <v>240</v>
       </c>
@@ -46554,7 +46508,7 @@
         <v>1.005684862555543</v>
       </c>
     </row>
-    <row r="814" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A814" s="41" t="s">
         <v>241</v>
       </c>
@@ -46583,8 +46537,8 @@
         <v>3.5189490918115136E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="816" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="816" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A816" s="44" t="s">
         <v>242</v>
       </c>
@@ -46596,8 +46550,8 @@
       <c r="G816" s="43"/>
       <c r="H816" s="43"/>
     </row>
-    <row r="817" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="818" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A818" s="41" t="s">
         <v>239</v>
       </c>
@@ -46626,7 +46580,7 @@
         <v>0.94746911800077815</v>
       </c>
     </row>
-    <row r="819" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A819" s="41" t="s">
         <v>240</v>
       </c>
@@ -46655,7 +46609,7 @@
         <v>0.94012624253730115</v>
       </c>
     </row>
-    <row r="820" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A820" s="41" t="s">
         <v>241</v>
       </c>
@@ -46684,8 +46638,8 @@
         <v>0.55195988993527723</v>
       </c>
     </row>
-    <row r="821" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="822" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="822" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A822" s="44" t="s">
         <v>243</v>
       </c>
@@ -46697,21 +46651,22 @@
       <c r="G822" s="43"/>
       <c r="H822" s="43"/>
     </row>
-    <row r="823" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="824" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="825" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="826" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="827" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="828" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="829" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="830" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="831" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="832" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="833" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="834" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="835" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="836" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="837" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="823" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="824" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="825" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="826" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="828" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="829" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="830" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="831" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="833" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="834" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="835" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="836" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="837" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="838" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="839" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
         <v>245</v>
@@ -47329,7 +47284,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47340,292 +47295,128 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47636,424 +47427,124 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -48353,7 +47844,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48364,128 +47855,212 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48496,124 +48071,504 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE274CC-6371-46C7-A27E-7A0B8C06E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8153716-BDAB-49F1-8F63-A2872361D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6797,28 +6797,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$656:$H$656</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>81229774842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87928603572</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>87982585098</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91269534900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98432703111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>96477917195</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6884,28 +6862,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$657:$H$657</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>17273205729</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24736387783</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21306074770</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18091160852</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18092278610</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16992247277</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -6971,28 +6927,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$658:$H$658</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14685609026</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23581975476</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47890808526</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60869933848</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60230491645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63571735571</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7058,28 +6992,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$659:$H$659</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2587596703</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1154412307</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>-26584733756</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>-42778772996</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>-42138213035</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>-46579488294</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -7097,6 +7009,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="733014896"/>
         <c:axId val="732989520"/>
@@ -30256,10 +30169,10 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C841" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E863" sqref="E863"/>
+      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -30371,8 +30284,8 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
@@ -30396,7 +30309,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="11" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
@@ -30408,7 +30321,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
@@ -30420,7 +30333,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
@@ -30450,7 +30363,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="14" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -30469,7 +30382,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>161</v>
       </c>
@@ -30499,7 +30412,7 @@
         <v>82379648</v>
       </c>
     </row>
-    <row r="16" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
@@ -30523,7 +30436,7 @@
         <v>62232380967</v>
       </c>
     </row>
-    <row r="17" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
@@ -30547,7 +30460,7 @@
         <v>31544326031</v>
       </c>
     </row>
-    <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>9</v>
       </c>
@@ -30571,7 +30484,7 @@
         <v>2618830549</v>
       </c>
     </row>
-    <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>10</v>
       </c>
@@ -30601,7 +30514,7 @@
         <v>96477917195</v>
       </c>
     </row>
-    <row r="20" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
@@ -30625,7 +30538,7 @@
         <v>-848510337</v>
       </c>
     </row>
-    <row r="21" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
@@ -30649,7 +30562,7 @@
         <v>5370554971</v>
       </c>
     </row>
-    <row r="22" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
@@ -30661,7 +30574,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
@@ -30685,7 +30598,7 @@
         <v>479628867</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>15</v>
       </c>
@@ -30697,7 +30610,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>16</v>
       </c>
@@ -30721,7 +30634,7 @@
         <v>22146096713</v>
       </c>
     </row>
-    <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
@@ -30745,7 +30658,7 @@
         <v>766368299</v>
       </c>
     </row>
-    <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>18</v>
       </c>
@@ -30769,7 +30682,7 @@
         <v>21878392994</v>
       </c>
     </row>
-    <row r="28" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>19</v>
       </c>
@@ -30781,7 +30694,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>20</v>
       </c>
@@ -30805,7 +30718,7 @@
         <v>1569935178</v>
       </c>
     </row>
-    <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>21</v>
       </c>
@@ -30829,7 +30742,7 @@
         <v>22381142804</v>
       </c>
     </row>
-    <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
@@ -30853,7 +30766,7 @@
         <v>1855008465</v>
       </c>
     </row>
-    <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>23</v>
       </c>
@@ -30877,7 +30790,7 @@
         <v>4448295749</v>
       </c>
     </row>
-    <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>24</v>
       </c>
@@ -30907,7 +30820,7 @@
         <v>27967087092</v>
       </c>
     </row>
-    <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>25</v>
       </c>
@@ -30931,7 +30844,7 @@
         <v>18043060640</v>
       </c>
     </row>
-    <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>26</v>
       </c>
@@ -30961,7 +30874,7 @@
         <v>9924026452</v>
       </c>
     </row>
-    <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>27</v>
       </c>
@@ -30985,7 +30898,7 @@
         <v>910496359</v>
       </c>
     </row>
-    <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>28</v>
       </c>
@@ -30997,7 +30910,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
@@ -31021,7 +30934,7 @@
         <v>7298433321</v>
       </c>
     </row>
-    <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>30</v>
       </c>
@@ -31051,7 +30964,7 @@
         <v>3536089490</v>
       </c>
     </row>
-    <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>31</v>
       </c>
@@ -31075,7 +30988,7 @@
         <v>1520772020</v>
       </c>
     </row>
-    <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>32</v>
       </c>
@@ -31087,7 +31000,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>33</v>
       </c>
@@ -31099,7 +31012,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>34</v>
       </c>
@@ -31111,7 +31024,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>35</v>
       </c>
@@ -31135,7 +31048,7 @@
         <v>684809720</v>
       </c>
     </row>
-    <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>36</v>
       </c>
@@ -31147,7 +31060,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>37</v>
       </c>
@@ -31161,7 +31074,7 @@
       </c>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>38</v>
       </c>
@@ -31191,7 +31104,7 @@
         <v>835962300</v>
       </c>
     </row>
-    <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>39</v>
       </c>
@@ -31221,7 +31134,7 @@
         <v>4372051790</v>
       </c>
     </row>
-    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>40</v>
       </c>
@@ -31245,7 +31158,7 @@
         <v>17480486</v>
       </c>
     </row>
-    <row r="50" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
@@ -31263,7 +31176,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
@@ -31281,7 +31194,7 @@
         <v>663392026</v>
       </c>
     </row>
-    <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>43</v>
       </c>
@@ -31305,7 +31218,7 @@
         <v>245241147</v>
       </c>
     </row>
-    <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
         <v>44</v>
       </c>
@@ -31323,7 +31236,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
         <v>45</v>
       </c>
@@ -31335,7 +31248,7 @@
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
     </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>46</v>
       </c>
@@ -31353,7 +31266,7 @@
         <v>907549281</v>
       </c>
     </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>162</v>
       </c>
@@ -31383,7 +31296,7 @@
         <v>-471917916</v>
       </c>
     </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
         <v>48</v>
       </c>
@@ -31395,7 +31308,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>163</v>
       </c>
@@ -31425,7 +31338,7 @@
         <v>3900133874</v>
       </c>
     </row>
-    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>49</v>
       </c>
@@ -31449,7 +31362,7 @@
         <v>947790266</v>
       </c>
     </row>
-    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>50</v>
       </c>
@@ -31479,7 +31392,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="12"/>
@@ -31489,7 +31402,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>164</v>
       </c>
@@ -31519,7 +31432,7 @@
         <v>0.24301480324005925</v>
       </c>
     </row>
-    <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>165</v>
       </c>
@@ -31549,7 +31462,7 @@
         <v>1.69259422091971E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>166</v>
       </c>
@@ -31579,6 +31492,7 @@
         <v>67209199390</v>
       </c>
     </row>
+    <row r="65" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="37" t="s">
         <v>177</v>
@@ -31591,8 +31505,8 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>52</v>
       </c>
@@ -31604,7 +31518,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>54</v>
       </c>
@@ -31616,7 +31530,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
     </row>
-    <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>55</v>
       </c>
@@ -31628,7 +31542,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>56</v>
       </c>
@@ -31640,7 +31554,7 @@
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>53</v>
       </c>
@@ -31670,7 +31584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>58</v>
       </c>
@@ -31682,7 +31596,7 @@
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
     </row>
-    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>59</v>
       </c>
@@ -31706,7 +31620,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>60</v>
       </c>
@@ -31718,7 +31632,7 @@
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18" t="s">
         <v>61</v>
       </c>
@@ -31730,7 +31644,7 @@
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
     </row>
-    <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>57</v>
       </c>
@@ -31760,7 +31674,7 @@
         <v>318452127</v>
       </c>
     </row>
-    <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>63</v>
       </c>
@@ -31784,7 +31698,7 @@
         <v>578160031</v>
       </c>
     </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>64</v>
       </c>
@@ -31808,7 +31722,7 @@
         <v>2351765785</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18" t="s">
         <v>65</v>
       </c>
@@ -31832,7 +31746,7 @@
         <v>10345592798</v>
       </c>
     </row>
-    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18" t="s">
         <v>66</v>
       </c>
@@ -31856,7 +31770,7 @@
         <v>17069519870</v>
       </c>
     </row>
-    <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18" t="s">
         <v>67</v>
       </c>
@@ -31880,7 +31794,7 @@
         <v>5391085031</v>
       </c>
     </row>
-    <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18" t="s">
         <v>68</v>
       </c>
@@ -31904,7 +31818,7 @@
         <v>311070713</v>
       </c>
     </row>
-    <row r="84" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>62</v>
       </c>
@@ -31934,7 +31848,7 @@
         <v>36047194228</v>
       </c>
     </row>
-    <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>70</v>
       </c>
@@ -31958,7 +31872,7 @@
         <v>219700000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>71</v>
       </c>
@@ -31982,7 +31896,7 @@
         <v>1342652707</v>
       </c>
     </row>
-    <row r="87" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>69</v>
       </c>
@@ -32012,7 +31926,7 @@
         <v>1562352707</v>
       </c>
     </row>
-    <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>72</v>
       </c>
@@ -32042,7 +31956,7 @@
         <v>37927999062</v>
       </c>
     </row>
-    <row r="89" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18" t="s">
         <v>73</v>
       </c>
@@ -32054,7 +31968,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18" t="s">
         <v>75</v>
       </c>
@@ -32066,7 +31980,7 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18" t="s">
         <v>76</v>
       </c>
@@ -32092,7 +32006,7 @@
         <v>10488885703</v>
       </c>
     </row>
-    <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18" t="s">
         <v>77</v>
       </c>
@@ -32108,7 +32022,7 @@
         <v>3596349024</v>
       </c>
     </row>
-    <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18" t="s">
         <v>78</v>
       </c>
@@ -32132,7 +32046,7 @@
         <v>1863430506</v>
       </c>
     </row>
-    <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>74</v>
       </c>
@@ -32162,7 +32076,7 @@
         <v>15948665233</v>
       </c>
     </row>
-    <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18" t="s">
         <v>80</v>
       </c>
@@ -32186,7 +32100,7 @@
         <v>9334294925</v>
       </c>
     </row>
-    <row r="96" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18" t="s">
         <v>81</v>
       </c>
@@ -32210,7 +32124,7 @@
         <v>127642859261</v>
       </c>
     </row>
-    <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
         <v>82</v>
       </c>
@@ -32234,7 +32148,7 @@
         <v>41178699844</v>
       </c>
     </row>
-    <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>79</v>
       </c>
@@ -32264,7 +32178,7 @@
         <v>178155854030</v>
       </c>
     </row>
-    <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>83</v>
       </c>
@@ -32294,7 +32208,7 @@
         <v>194104519263</v>
       </c>
     </row>
-    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18" t="s">
         <v>84</v>
       </c>
@@ -32306,7 +32220,7 @@
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
         <v>85</v>
       </c>
@@ -32318,7 +32232,7 @@
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18" t="s">
         <v>86</v>
       </c>
@@ -32342,7 +32256,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>87</v>
       </c>
@@ -32372,7 +32286,7 @@
         <v>6459808043</v>
       </c>
     </row>
-    <row r="104" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18" t="s">
         <v>88</v>
       </c>
@@ -32384,7 +32298,7 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
     </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>89</v>
       </c>
@@ -32414,7 +32328,7 @@
         <v>238492326368</v>
       </c>
     </row>
-    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="12"/>
@@ -32424,7 +32338,7 @@
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>90</v>
       </c>
@@ -32436,7 +32350,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>91</v>
       </c>
@@ -32460,7 +32374,7 @@
         <v>4500000000</v>
       </c>
     </row>
-    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
         <v>92</v>
       </c>
@@ -32472,7 +32386,7 @@
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
     </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18" t="s">
         <v>93</v>
       </c>
@@ -32496,7 +32410,7 @@
         <v>255906342</v>
       </c>
     </row>
-    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18" t="s">
         <v>94</v>
       </c>
@@ -32520,7 +32434,7 @@
         <v>1045087734</v>
       </c>
     </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>95</v>
       </c>
@@ -32544,7 +32458,7 @@
         <v>909800000</v>
       </c>
     </row>
-    <row r="113" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
         <v>96</v>
       </c>
@@ -32568,7 +32482,7 @@
         <v>2911725555</v>
       </c>
     </row>
-    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18" t="s">
         <v>97</v>
       </c>
@@ -32592,7 +32506,7 @@
         <v>949752668</v>
       </c>
     </row>
-    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>98</v>
       </c>
@@ -32616,7 +32530,7 @@
         <v>2952343608</v>
       </c>
     </row>
-    <row r="116" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18" t="s">
         <v>99</v>
       </c>
@@ -32628,7 +32542,7 @@
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
     </row>
-    <row r="117" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18" t="s">
         <v>100</v>
       </c>
@@ -32646,7 +32560,7 @@
         <v>936451762</v>
       </c>
     </row>
-    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>101</v>
       </c>
@@ -32676,7 +32590,7 @@
         <v>14461067669</v>
       </c>
     </row>
-    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18" t="s">
         <v>102</v>
       </c>
@@ -32700,7 +32614,7 @@
         <v>30647275656</v>
       </c>
     </row>
-    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18" t="s">
         <v>103</v>
       </c>
@@ -32720,7 +32634,7 @@
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18" t="s">
         <v>104</v>
       </c>
@@ -32736,7 +32650,7 @@
         <v>3872923226</v>
       </c>
     </row>
-    <row r="122" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18" t="s">
         <v>105</v>
       </c>
@@ -32756,7 +32670,7 @@
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
     </row>
-    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18" t="s">
         <v>106</v>
       </c>
@@ -32780,7 +32694,7 @@
         <v>5938979788</v>
       </c>
     </row>
-    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
         <v>107</v>
       </c>
@@ -32810,7 +32724,7 @@
         <v>40459178670</v>
       </c>
     </row>
-    <row r="125" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>108</v>
       </c>
@@ -32840,7 +32754,7 @@
         <v>54920246339</v>
       </c>
     </row>
-    <row r="126" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18" t="s">
         <v>168</v>
       </c>
@@ -32860,7 +32774,7 @@
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
     </row>
-    <row r="127" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18" t="s">
         <v>110</v>
       </c>
@@ -32884,7 +32798,7 @@
         <v>20822193744</v>
       </c>
     </row>
-    <row r="128" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
         <v>111</v>
       </c>
@@ -32908,7 +32822,7 @@
         <v>85466357355</v>
       </c>
     </row>
-    <row r="129" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>112</v>
       </c>
@@ -32924,7 +32838,7 @@
         <v>17157242518</v>
       </c>
     </row>
-    <row r="130" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
         <v>113</v>
       </c>
@@ -32944,7 +32858,7 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
     </row>
-    <row r="131" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
         <v>114</v>
       </c>
@@ -32964,7 +32878,7 @@
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
     </row>
-    <row r="132" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>115</v>
       </c>
@@ -32988,7 +32902,7 @@
         <v>7086990075</v>
       </c>
     </row>
-    <row r="133" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>116</v>
       </c>
@@ -33000,7 +32914,7 @@
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
     </row>
-    <row r="134" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
         <v>117</v>
       </c>
@@ -33030,7 +32944,7 @@
         <v>130532783692</v>
       </c>
     </row>
-    <row r="135" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>118</v>
       </c>
@@ -33042,7 +32956,7 @@
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
     </row>
-    <row r="136" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>119</v>
       </c>
@@ -33066,7 +32980,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="137" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
         <v>120</v>
       </c>
@@ -33096,7 +33010,7 @@
         <v>53039296337</v>
       </c>
     </row>
-    <row r="138" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18" t="s">
         <v>121</v>
       </c>
@@ -33108,7 +33022,7 @@
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
     </row>
-    <row r="139" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
         <v>122</v>
       </c>
@@ -33138,6 +33052,7 @@
         <v>238492326368</v>
       </c>
     </row>
+    <row r="140" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="37" t="s">
         <v>178</v>
@@ -44333,8 +44248,8 @@
       <c r="G593" s="40"/>
       <c r="H593" s="40"/>
     </row>
-    <row r="594" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="595" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="595" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A595" s="44" t="s">
         <v>191</v>
       </c>
@@ -44447,8 +44362,8 @@
     <row r="610" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="611" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="612" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="613" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="614" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="614" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A614" s="44" t="s">
         <v>193</v>
       </c>
@@ -44637,8 +44552,8 @@
     <row r="632" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="633" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="634" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="635" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
-    <row r="636" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A636" s="44" t="s">
         <v>194</v>
       </c>
@@ -44650,8 +44565,8 @@
       <c r="G636" s="43"/>
       <c r="H636" s="43"/>
     </row>
-    <row r="637" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="638" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="638" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A638" s="57" t="s">
         <v>195</v>
       </c>
@@ -44663,8 +44578,8 @@
       <c r="G638" s="54"/>
       <c r="H638" s="54"/>
     </row>
-    <row r="639" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="640" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="640" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A640" s="55" t="s">
         <v>196</v>
       </c>
@@ -44693,7 +44608,7 @@
         <v>37927999062</v>
       </c>
     </row>
-    <row r="641" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A641" s="55" t="s">
         <v>197</v>
       </c>
@@ -44722,7 +44637,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="56" t="s">
         <v>198</v>
       </c>
@@ -44751,7 +44666,7 @@
         <v>101499734633</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A643" s="55" t="s">
         <v>199</v>
       </c>
@@ -44780,7 +44695,7 @@
         <v>14461067669</v>
       </c>
     </row>
-    <row r="644" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A644" s="55" t="s">
         <v>200</v>
       </c>
@@ -44809,7 +44724,7 @@
         <v>87038666964</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="56" t="s">
         <v>201</v>
       </c>
@@ -44838,7 +44753,7 @@
         <v>101499734633</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A646" s="58" t="s">
         <v>202</v>
       </c>
@@ -44867,8 +44782,8 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="647" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="648" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="648" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A648" s="57" t="s">
         <v>203</v>
       </c>
@@ -44880,8 +44795,8 @@
       <c r="G648" s="54"/>
       <c r="H648" s="54"/>
     </row>
-    <row r="649" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="650" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="650" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A650" s="55" t="s">
         <v>204</v>
       </c>
@@ -44910,7 +44825,7 @@
         <v>16992247277</v>
       </c>
     </row>
-    <row r="651" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A651" s="55" t="s">
         <v>205</v>
       </c>
@@ -44939,7 +44854,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="56" t="s">
         <v>206</v>
       </c>
@@ -44969,8 +44884,8 @@
         <v>-46579488294</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="654" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="654" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A654" s="57" t="s">
         <v>207</v>
       </c>
@@ -44982,8 +44897,8 @@
       <c r="G654" s="54"/>
       <c r="H654" s="54"/>
     </row>
-    <row r="655" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="656" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="656" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A656" s="56" t="s">
         <v>10</v>
       </c>
@@ -45013,7 +44928,7 @@
         <v>96477917195</v>
       </c>
     </row>
-    <row r="657" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A657" s="55" t="str">
         <f>A650</f>
         <v>Fonds de roulement nette globale (FRNG)</v>
@@ -45043,7 +44958,7 @@
         <v>16992247277</v>
       </c>
     </row>
-    <row r="658" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A658" s="55" t="str">
         <f>A651</f>
         <v>Besoins de financement globale (BFG)</v>
@@ -45073,7 +44988,7 @@
         <v>63571735571</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="56" t="str">
         <f>A652</f>
         <v>Tresorerie nette (TN)</v>
@@ -45104,21 +45019,22 @@
         <v>-46579488294</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="661" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="662" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="663" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="664" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="665" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="666" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="667" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="668" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="669" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="670" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="671" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="672" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="673" spans="1:8" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="674" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="660" spans="1:8" ht="15" hidden="1" outlineLevel="2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="661" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="662" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="663" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="664" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="665" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="666" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="667" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="668" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="669" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="670" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="671" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="672" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="673" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
+    <row r="674" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="675" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="676" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A676" s="37" t="s">
         <v>209</v>
@@ -47284,7 +47200,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47295,128 +47211,292 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47427,124 +47507,424 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -47844,7 +48224,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47855,212 +48235,128 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48071,504 +48367,124 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8153716-BDAB-49F1-8F63-A2872361D686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F90FD9F-F37B-40F9-BDD9-3F94F0449853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30169,7 +30169,7 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C711" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
@@ -45033,7 +45033,7 @@
     <row r="671" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="672" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
     <row r="673" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.3"/>
-    <row r="674" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="674" spans="1:8" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="675" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="676" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A676" s="37" t="s">
@@ -47200,7 +47200,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47211,292 +47211,128 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47507,424 +47343,124 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -48224,7 +47760,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48235,128 +47771,212 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48367,124 +47987,504 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>

--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F90FD9F-F37B-40F9-BDD9-3F94F0449853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C10B82-771A-4F10-AF9E-887F9BE4F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4528,6 +4528,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$812:$H$812</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1531398986088364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.220736712600393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1788582795715932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1254883613586362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1148662897673767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0925644426664209</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4593,6 +4615,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$813:$H$813</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0697338474897862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1109917763984805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0708211761241921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0245664425152976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0130442247039764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.005684862555543</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4658,6 +4702,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$814:$H$814</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3753710296306956E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11088925349494733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4262052158349547E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4229129432682039E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3746877403999601E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5189490918115136E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4675,7 +4741,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -4985,6 +5050,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$818:$H$818</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0586197859193895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0223029148447502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9760206569180726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96680922333219632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94746911800077815</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5050,6 +5137,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$819:$H$819</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0385684055950077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0010164478173309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95777696940180268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94700586232843209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94012624253730115</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5115,6 +5224,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$820:$H$820</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7393380397716363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85111990982417807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0074571210705303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68618559140602231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55195988993527723</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5132,7 +5263,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -30169,10 +30299,10 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C711" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C830" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
+      <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" outlineLevelRow="3" x14ac:dyDescent="0.3"/>
@@ -46352,8 +46482,8 @@
       <c r="G808" s="40"/>
       <c r="H808" s="40"/>
     </row>
-    <row r="809" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="810" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="810" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A810" s="44" t="s">
         <v>238</v>
       </c>
@@ -46365,8 +46495,8 @@
       <c r="G810" s="43"/>
       <c r="H810" s="43"/>
     </row>
-    <row r="811" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="812" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="812" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A812" s="41" t="s">
         <v>239</v>
       </c>
@@ -46395,7 +46525,7 @@
         <v>1.0925644426664209</v>
       </c>
     </row>
-    <row r="813" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A813" s="41" t="s">
         <v>240</v>
       </c>
@@ -46424,7 +46554,7 @@
         <v>1.005684862555543</v>
       </c>
     </row>
-    <row r="814" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A814" s="41" t="s">
         <v>241</v>
       </c>
@@ -46453,8 +46583,8 @@
         <v>3.5189490918115136E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="816" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="816" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A816" s="44" t="s">
         <v>242</v>
       </c>
@@ -46466,8 +46596,8 @@
       <c r="G816" s="43"/>
       <c r="H816" s="43"/>
     </row>
-    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="818" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A818" s="41" t="s">
         <v>239</v>
       </c>
@@ -46496,7 +46626,7 @@
         <v>0.94746911800077815</v>
       </c>
     </row>
-    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A819" s="41" t="s">
         <v>240</v>
       </c>
@@ -46525,7 +46655,7 @@
         <v>0.94012624253730115</v>
       </c>
     </row>
-    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A820" s="41" t="s">
         <v>241</v>
       </c>
@@ -46554,8 +46684,8 @@
         <v>0.55195988993527723</v>
       </c>
     </row>
-    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="822" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="822" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A822" s="44" t="s">
         <v>243</v>
       </c>
@@ -46567,22 +46697,21 @@
       <c r="G822" s="43"/>
       <c r="H822" s="43"/>
     </row>
-    <row r="823" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="824" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="825" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="826" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="828" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="829" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="830" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="831" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="832" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="833" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="834" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="835" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="836" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="837" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="838" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="823" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="824" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="825" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="826" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="827" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="828" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="829" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="830" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="831" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="833" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="834" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="835" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="836" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="837" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="839" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
         <v>245</v>

--- a/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
+++ b/L'analyse financiere/Cours/New folder/SODECI For Student M1 CCA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diass\OneDrive\Desktop\MIAGE\Semestre 4 - Memoire\L'analyse financiere\Cours\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C10B82-771A-4F10-AF9E-887F9BE4F187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E4CAE2-B90E-4F27-A768-732DCA6F3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2527,6 +2527,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$747:$H$747</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23289426851003456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24166028714756446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20687288625370001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2067380458376939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20860256664901683</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20415806602778713</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2580,6 +2602,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$748:$H$748</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8383946823251247E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.742958936343245E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0768948673020269E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9830674123441817E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9092710293353512E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.060123698600125E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2634,6 +2678,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$749:$H$749</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1556251574977732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7372706410574288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.119059211589386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97626540275529272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0257701928083651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95052383677496544</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2699,6 +2765,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$750:$H$750</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8147247269645019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7164025062577037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0081096468158899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0988735476194549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9901322167900162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.018827167967939</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3086,6 +3174,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$755:$H$755</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0376394777493299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88826954642203493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88769056946021974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89569643763057616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87661266777370572</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3151,6 +3261,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$756:$H$756</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97513654694725949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80160981919612917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77716536709486461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75793952162653777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79724050074664066</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3216,6 +3348,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$757:$H$757</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80592427445689774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51913441801188576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45289200646021932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47585740463294107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44095042844940791</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3281,6 +3435,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$758:$H$758</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.320343147823767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1345283214587192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.52204895193255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4834159269025289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4936105121502554</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -3298,7 +3474,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="153670415"/>
         <c:axId val="153671247"/>
@@ -4528,28 +4703,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$812:$H$812</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1531398986088364</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.220736712600393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1788582795715932</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1254883613586362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1148662897673767</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0925644426664209</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4615,28 +4768,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$813:$H$813</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0697338474897862</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1109917763984805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0708211761241921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0245664425152976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0130442247039764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.005684862555543</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4702,28 +4833,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$814:$H$814</c:f>
-              <c:numCache>
-                <c:formatCode>#,###.00\x</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.3753710296306956E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11088925349494733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4262052158349547E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4229129432682039E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.3746877403999601E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5189490918115136E-2</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -4741,6 +4850,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -5050,28 +5160,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$818:$H$818</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0586197859193895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0223029148447502</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9760206569180726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96680922333219632</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94746911800077815</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5137,28 +5225,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$819:$H$819</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0385684055950077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0010164478173309</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.95777696940180268</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.94700586232843209</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94012624253730115</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5224,28 +5290,6 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$820:$H$820</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7393380397716363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85111990982417807</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0074571210705303</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68618559140602231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55195988993527723</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -5263,6 +5307,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="812995679"/>
         <c:axId val="812973215"/>
@@ -8759,6 +8804,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$717:$H$717</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3635975267477167E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7955830651067292E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8652525198898871E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8498408212671142E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8270390742230068E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6372161543347792E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -8812,6 +8879,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$718:$H$718</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8798941910921529E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9116433009945099E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5604118979731236E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8948134554869489E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7560160102557744E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7744871325716524E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -8893,6 +8982,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$719:$H$719</c:f>
+              <c:numCache>
+                <c:formatCode>#,###.00\x</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1556251574977732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7372706410574288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.119059211589386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97626540275529272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0257701928083651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95052383677496544</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9282,6 +9393,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$724:$H$724</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8125191394461172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34258613123437498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22117764698159101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33801711107951105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31532078700591082</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9347,6 +9480,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$725:$H$725</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0081829834368292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65991796988989337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4883673013138477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71033277571932507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71509350408101235</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9412,6 +9567,28 @@
           <c:val>
             <c:numRef>
               <c:f>'AF SODECI'!$C$726:$H$726</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80592427445689774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51913441801188576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45289200646021932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47585740463294107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44095042844940791</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -9429,7 +9606,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1972865855"/>
         <c:axId val="1972866687"/>
@@ -30299,7 +30475,7 @@
   <dimension ref="A1:H857"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C830" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C735" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C221" sqref="C221"/>
@@ -45593,8 +45769,8 @@
       <c r="G712" s="40"/>
       <c r="H712" s="40"/>
     </row>
-    <row r="713" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="714" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="714" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A714" s="44" t="s">
         <v>219</v>
       </c>
@@ -45606,8 +45782,8 @@
       <c r="G714" s="43"/>
       <c r="H714" s="43"/>
     </row>
-    <row r="715" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="716" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="716" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A716" s="41" t="s">
         <v>220</v>
       </c>
@@ -45636,7 +45812,7 @@
         <v>2.6372161543347792E-2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A717" s="41" t="s">
         <v>221</v>
       </c>
@@ -45665,7 +45841,7 @@
         <v>2.6372161543347792E-2</v>
       </c>
     </row>
-    <row r="718" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A718" s="64" t="s">
         <v>212</v>
       </c>
@@ -45694,7 +45870,7 @@
         <v>2.7744871325716524E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A719" s="64" t="s">
         <v>222</v>
       </c>
@@ -45723,8 +45899,8 @@
         <v>0.95052383677496544</v>
       </c>
     </row>
-    <row r="720" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="721" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="721" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A721" s="44" t="s">
         <v>223</v>
       </c>
@@ -45736,8 +45912,8 @@
       <c r="G721" s="43"/>
       <c r="H721" s="43"/>
     </row>
-    <row r="722" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="723" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="723" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A723" s="41" t="s">
         <v>220</v>
       </c>
@@ -45766,7 +45942,7 @@
         <v>0.31532078700591076</v>
       </c>
     </row>
-    <row r="724" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A724" s="41" t="s">
         <v>221</v>
       </c>
@@ -45795,7 +45971,7 @@
         <v>0.31532078700591082</v>
       </c>
     </row>
-    <row r="725" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A725" s="64" t="s">
         <v>212</v>
       </c>
@@ -45824,7 +46000,7 @@
         <v>0.71509350408101235</v>
       </c>
     </row>
-    <row r="726" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A726" s="64" t="s">
         <v>222</v>
       </c>
@@ -45853,8 +46029,8 @@
         <v>0.44095042844940791</v>
       </c>
     </row>
-    <row r="727" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="728" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="728" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A728" s="44" t="s">
         <v>227</v>
       </c>
@@ -45866,22 +46042,22 @@
       <c r="G728" s="43"/>
       <c r="H728" s="43"/>
     </row>
-    <row r="729" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="730" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="731" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="732" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="733" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="734" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="735" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="736" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="737" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="738" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="739" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="740" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="741" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="742" spans="1:8" ht="19.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="743" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="744" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="730" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="731" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="732" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="733" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="734" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="735" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="736" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="737" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="738" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="739" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="740" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="741" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="742" spans="1:8" ht="19.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="743" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="744" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A744" s="44" t="s">
         <v>260</v>
       </c>
@@ -45893,8 +46069,8 @@
       <c r="G744" s="43"/>
       <c r="H744" s="43"/>
     </row>
-    <row r="745" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="746" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="746" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A746" s="41" t="s">
         <v>224</v>
       </c>
@@ -45923,7 +46099,7 @@
         <v>0.20415806602778716</v>
       </c>
     </row>
-    <row r="747" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A747" s="41" t="s">
         <v>225</v>
       </c>
@@ -45952,7 +46128,7 @@
         <v>0.20415806602778713</v>
       </c>
     </row>
-    <row r="748" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A748" s="64" t="s">
         <v>214</v>
       </c>
@@ -45981,7 +46157,7 @@
         <v>3.060123698600125E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A749" s="64" t="s">
         <v>222</v>
       </c>
@@ -46010,7 +46186,7 @@
         <v>0.95052383677496544</v>
       </c>
     </row>
-    <row r="750" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A750" s="64" t="s">
         <v>226</v>
       </c>
@@ -46039,8 +46215,8 @@
         <v>7.018827167967939</v>
       </c>
     </row>
-    <row r="751" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="752" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="752" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A752" s="44" t="s">
         <v>228</v>
       </c>
@@ -46052,8 +46228,8 @@
       <c r="G752" s="43"/>
       <c r="H752" s="43"/>
     </row>
-    <row r="753" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="754" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="754" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A754" s="41" t="s">
         <v>224</v>
       </c>
@@ -46082,7 +46258,7 @@
         <v>0.87661266777370561</v>
       </c>
     </row>
-    <row r="755" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A755" s="41" t="s">
         <v>225</v>
       </c>
@@ -46111,7 +46287,7 @@
         <v>0.87661266777370572</v>
       </c>
     </row>
-    <row r="756" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A756" s="64" t="s">
         <v>214</v>
       </c>
@@ -46140,7 +46316,7 @@
         <v>0.79724050074664066</v>
       </c>
     </row>
-    <row r="757" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A757" s="64" t="s">
         <v>222</v>
       </c>
@@ -46169,7 +46345,7 @@
         <v>0.44095042844940791</v>
       </c>
     </row>
-    <row r="758" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A758" s="64" t="s">
         <v>226</v>
       </c>
@@ -46198,8 +46374,8 @@
         <v>2.4936105121502554</v>
       </c>
     </row>
-    <row r="759" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="760" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="760" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A760" s="44" t="s">
         <v>229</v>
       </c>
@@ -46211,22 +46387,21 @@
       <c r="G760" s="43"/>
       <c r="H760" s="43"/>
     </row>
-    <row r="761" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="762" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="763" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="764" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="765" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="766" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="767" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="768" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="769" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="770" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="771" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="772" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="773" spans="1:8" ht="19.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="774" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="775" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="776" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="761" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="762" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="763" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="764" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="765" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="766" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="767" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="768" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="769" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="770" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="771" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="772" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="773" spans="1:8" ht="19.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="774" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="775" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="777" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A777" s="37" t="s">
         <v>230</v>
@@ -46482,8 +46657,8 @@
       <c r="G808" s="40"/>
       <c r="H808" s="40"/>
     </row>
-    <row r="809" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="810" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="810" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A810" s="44" t="s">
         <v>238</v>
       </c>
@@ -46495,8 +46670,8 @@
       <c r="G810" s="43"/>
       <c r="H810" s="43"/>
     </row>
-    <row r="811" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="812" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="812" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A812" s="41" t="s">
         <v>239</v>
       </c>
@@ -46525,7 +46700,7 @@
         <v>1.0925644426664209</v>
       </c>
     </row>
-    <row r="813" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A813" s="41" t="s">
         <v>240</v>
       </c>
@@ -46554,7 +46729,7 @@
         <v>1.005684862555543</v>
       </c>
     </row>
-    <row r="814" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A814" s="41" t="s">
         <v>241</v>
       </c>
@@ -46583,8 +46758,8 @@
         <v>3.5189490918115136E-2</v>
       </c>
     </row>
-    <row r="815" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="816" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="816" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A816" s="44" t="s">
         <v>242</v>
       </c>
@@ -46596,8 +46771,8 @@
       <c r="G816" s="43"/>
       <c r="H816" s="43"/>
     </row>
-    <row r="817" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="818" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="818" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A818" s="41" t="s">
         <v>239</v>
       </c>
@@ -46626,7 +46801,7 @@
         <v>0.94746911800077815</v>
       </c>
     </row>
-    <row r="819" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A819" s="41" t="s">
         <v>240</v>
       </c>
@@ -46655,7 +46830,7 @@
         <v>0.94012624253730115</v>
       </c>
     </row>
-    <row r="820" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A820" s="41" t="s">
         <v>241</v>
       </c>
@@ -46684,8 +46859,8 @@
         <v>0.55195988993527723</v>
       </c>
     </row>
-    <row r="821" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="822" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="822" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A822" s="44" t="s">
         <v>243</v>
       </c>
@@ -46697,21 +46872,22 @@
       <c r="G822" s="43"/>
       <c r="H822" s="43"/>
     </row>
-    <row r="823" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="824" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="825" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="826" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="827" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="828" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="829" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="830" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="831" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="832" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="833" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="834" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="835" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="836" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="837" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="823" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="824" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="825" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="826" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="827" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="828" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="829" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="830" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="831" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="832" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="833" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="834" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="835" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="836" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="837" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="838" spans="1:8" collapsed="1" x14ac:dyDescent="0.3"/>
     <row r="839" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="37" t="s">
         <v>245</v>
@@ -47329,7 +47505,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47340,128 +47516,292 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D561:H561</xm:f>
-              <xm:sqref>I561</xm:sqref>
+              <xm:f>'AF SODECI'!C376:H376</xm:f>
+              <xm:sqref>I376</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D562:H562</xm:f>
-              <xm:sqref>I562</xm:sqref>
+              <xm:f>'AF SODECI'!C377:H377</xm:f>
+              <xm:sqref>I377</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D563:H563</xm:f>
-              <xm:sqref>I563</xm:sqref>
+              <xm:f>'AF SODECI'!C378:H378</xm:f>
+              <xm:sqref>I378</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D564:H564</xm:f>
-              <xm:sqref>I564</xm:sqref>
+              <xm:f>'AF SODECI'!C379:H379</xm:f>
+              <xm:sqref>I379</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D565:H565</xm:f>
-              <xm:sqref>I565</xm:sqref>
+              <xm:f>'AF SODECI'!C380:H380</xm:f>
+              <xm:sqref>I380</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D566:H566</xm:f>
-              <xm:sqref>I566</xm:sqref>
+              <xm:f>'AF SODECI'!C381:H381</xm:f>
+              <xm:sqref>I381</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D567:H567</xm:f>
-              <xm:sqref>I567</xm:sqref>
+              <xm:f>'AF SODECI'!C382:H382</xm:f>
+              <xm:sqref>I382</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D568:H568</xm:f>
-              <xm:sqref>I568</xm:sqref>
+              <xm:f>'AF SODECI'!C383:H383</xm:f>
+              <xm:sqref>I383</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D569:H569</xm:f>
-              <xm:sqref>I569</xm:sqref>
+              <xm:f>'AF SODECI'!C384:H384</xm:f>
+              <xm:sqref>I384</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D570:H570</xm:f>
-              <xm:sqref>I570</xm:sqref>
+              <xm:f>'AF SODECI'!C385:H385</xm:f>
+              <xm:sqref>I385</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D571:H571</xm:f>
-              <xm:sqref>I571</xm:sqref>
+              <xm:f>'AF SODECI'!C386:H386</xm:f>
+              <xm:sqref>I386</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D572:H572</xm:f>
-              <xm:sqref>I572</xm:sqref>
+              <xm:f>'AF SODECI'!C387:H387</xm:f>
+              <xm:sqref>I387</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D573:H573</xm:f>
-              <xm:sqref>I573</xm:sqref>
+              <xm:f>'AF SODECI'!C388:H388</xm:f>
+              <xm:sqref>I388</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D574:H574</xm:f>
-              <xm:sqref>I574</xm:sqref>
+              <xm:f>'AF SODECI'!C389:H389</xm:f>
+              <xm:sqref>I389</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D575:H575</xm:f>
-              <xm:sqref>I575</xm:sqref>
+              <xm:f>'AF SODECI'!C390:H390</xm:f>
+              <xm:sqref>I390</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D576:H576</xm:f>
-              <xm:sqref>I576</xm:sqref>
+              <xm:f>'AF SODECI'!C391:H391</xm:f>
+              <xm:sqref>I391</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D577:H577</xm:f>
-              <xm:sqref>I577</xm:sqref>
+              <xm:f>'AF SODECI'!C392:H392</xm:f>
+              <xm:sqref>I392</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D578:H578</xm:f>
-              <xm:sqref>I578</xm:sqref>
+              <xm:f>'AF SODECI'!C393:H393</xm:f>
+              <xm:sqref>I393</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D579:H579</xm:f>
-              <xm:sqref>I579</xm:sqref>
+              <xm:f>'AF SODECI'!C394:H394</xm:f>
+              <xm:sqref>I394</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D580:H580</xm:f>
-              <xm:sqref>I580</xm:sqref>
+              <xm:f>'AF SODECI'!C395:H395</xm:f>
+              <xm:sqref>I395</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D581:H581</xm:f>
-              <xm:sqref>I581</xm:sqref>
+              <xm:f>'AF SODECI'!C396:H396</xm:f>
+              <xm:sqref>I396</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D582:H582</xm:f>
-              <xm:sqref>I582</xm:sqref>
+              <xm:f>'AF SODECI'!C397:H397</xm:f>
+              <xm:sqref>I397</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D583:H583</xm:f>
-              <xm:sqref>I583</xm:sqref>
+              <xm:f>'AF SODECI'!C398:H398</xm:f>
+              <xm:sqref>I398</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D584:H584</xm:f>
-              <xm:sqref>I584</xm:sqref>
+              <xm:f>'AF SODECI'!C399:H399</xm:f>
+              <xm:sqref>I399</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D585:H585</xm:f>
-              <xm:sqref>I585</xm:sqref>
+              <xm:f>'AF SODECI'!C400:H400</xm:f>
+              <xm:sqref>I400</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D586:H586</xm:f>
-              <xm:sqref>I586</xm:sqref>
+              <xm:f>'AF SODECI'!C401:H401</xm:f>
+              <xm:sqref>I401</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D587:H587</xm:f>
-              <xm:sqref>I587</xm:sqref>
+              <xm:f>'AF SODECI'!C402:H402</xm:f>
+              <xm:sqref>I402</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D588:H588</xm:f>
-              <xm:sqref>I588</xm:sqref>
+              <xm:f>'AF SODECI'!C403:H403</xm:f>
+              <xm:sqref>I403</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D589:H589</xm:f>
-              <xm:sqref>I589</xm:sqref>
+              <xm:f>'AF SODECI'!C404:H404</xm:f>
+              <xm:sqref>I404</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D590:H590</xm:f>
-              <xm:sqref>I590</xm:sqref>
+              <xm:f>'AF SODECI'!C405:H405</xm:f>
+              <xm:sqref>I405</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C406:H406</xm:f>
+              <xm:sqref>I406</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C407:H407</xm:f>
+              <xm:sqref>I407</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C408:H408</xm:f>
+              <xm:sqref>I408</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C409:H409</xm:f>
+              <xm:sqref>I409</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C410:H410</xm:f>
+              <xm:sqref>I410</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C411:H411</xm:f>
+              <xm:sqref>I411</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C412:H412</xm:f>
+              <xm:sqref>I412</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C413:H413</xm:f>
+              <xm:sqref>I413</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C414:H414</xm:f>
+              <xm:sqref>I414</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C415:H415</xm:f>
+              <xm:sqref>I415</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C416:H416</xm:f>
+              <xm:sqref>I416</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C417:H417</xm:f>
+              <xm:sqref>I417</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C418:H418</xm:f>
+              <xm:sqref>I418</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C419:H419</xm:f>
+              <xm:sqref>I419</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C420:H420</xm:f>
+              <xm:sqref>I420</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C421:H421</xm:f>
+              <xm:sqref>I421</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C422:H422</xm:f>
+              <xm:sqref>I422</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C423:H423</xm:f>
+              <xm:sqref>I423</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C424:H424</xm:f>
+              <xm:sqref>I424</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C425:H425</xm:f>
+              <xm:sqref>I425</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C426:H426</xm:f>
+              <xm:sqref>I426</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C427:H427</xm:f>
+              <xm:sqref>I427</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C428:H428</xm:f>
+              <xm:sqref>I428</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C429:H429</xm:f>
+              <xm:sqref>I429</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C430:H430</xm:f>
+              <xm:sqref>I430</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C431:H431</xm:f>
+              <xm:sqref>I431</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C432:H432</xm:f>
+              <xm:sqref>I432</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C433:H433</xm:f>
+              <xm:sqref>I433</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C434:H434</xm:f>
+              <xm:sqref>I434</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C435:H435</xm:f>
+              <xm:sqref>I435</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C436:H436</xm:f>
+              <xm:sqref>I436</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C437:H437</xm:f>
+              <xm:sqref>I437</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C438:H438</xm:f>
+              <xm:sqref>I438</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C439:H439</xm:f>
+              <xm:sqref>I439</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C440:H440</xm:f>
+              <xm:sqref>I440</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C441:H441</xm:f>
+              <xm:sqref>I441</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C442:H442</xm:f>
+              <xm:sqref>I442</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C443:H443</xm:f>
+              <xm:sqref>I443</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C444:H444</xm:f>
+              <xm:sqref>I444</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C445:H445</xm:f>
+              <xm:sqref>I445</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C446:H446</xm:f>
+              <xm:sqref>I446</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47472,124 +47812,424 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C528:H528</xm:f>
-              <xm:sqref>I528</xm:sqref>
+              <xm:f>'AF SODECI'!D318:H318</xm:f>
+              <xm:sqref>I318</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C529:H529</xm:f>
-              <xm:sqref>I529</xm:sqref>
+              <xm:f>'AF SODECI'!D319:H319</xm:f>
+              <xm:sqref>I319</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C530:H530</xm:f>
-              <xm:sqref>I530</xm:sqref>
+              <xm:f>'AF SODECI'!D320:H320</xm:f>
+              <xm:sqref>I320</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C531:H531</xm:f>
-              <xm:sqref>I531</xm:sqref>
+              <xm:f>'AF SODECI'!D321:H321</xm:f>
+              <xm:sqref>I321</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C532:H532</xm:f>
-              <xm:sqref>I532</xm:sqref>
+              <xm:f>'AF SODECI'!D322:H322</xm:f>
+              <xm:sqref>I322</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C533:H533</xm:f>
-              <xm:sqref>I533</xm:sqref>
+              <xm:f>'AF SODECI'!D323:H323</xm:f>
+              <xm:sqref>I323</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C534:H534</xm:f>
-              <xm:sqref>I534</xm:sqref>
+              <xm:f>'AF SODECI'!D324:H324</xm:f>
+              <xm:sqref>I324</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C535:H535</xm:f>
-              <xm:sqref>I535</xm:sqref>
+              <xm:f>'AF SODECI'!D325:H325</xm:f>
+              <xm:sqref>I325</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C536:H536</xm:f>
-              <xm:sqref>I536</xm:sqref>
+              <xm:f>'AF SODECI'!D326:H326</xm:f>
+              <xm:sqref>I326</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C537:H537</xm:f>
-              <xm:sqref>I537</xm:sqref>
+              <xm:f>'AF SODECI'!D327:H327</xm:f>
+              <xm:sqref>I327</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C538:H538</xm:f>
-              <xm:sqref>I538</xm:sqref>
+              <xm:f>'AF SODECI'!D328:H328</xm:f>
+              <xm:sqref>I328</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C539:H539</xm:f>
-              <xm:sqref>I539</xm:sqref>
+              <xm:f>'AF SODECI'!D329:H329</xm:f>
+              <xm:sqref>I329</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C540:H540</xm:f>
-              <xm:sqref>I540</xm:sqref>
+              <xm:f>'AF SODECI'!D330:H330</xm:f>
+              <xm:sqref>I330</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C541:H541</xm:f>
-              <xm:sqref>I541</xm:sqref>
+              <xm:f>'AF SODECI'!D331:H331</xm:f>
+              <xm:sqref>I331</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C542:H542</xm:f>
-              <xm:sqref>I542</xm:sqref>
+              <xm:f>'AF SODECI'!D332:H332</xm:f>
+              <xm:sqref>I332</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C543:H543</xm:f>
-              <xm:sqref>I543</xm:sqref>
+              <xm:f>'AF SODECI'!D333:H333</xm:f>
+              <xm:sqref>I333</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C544:H544</xm:f>
-              <xm:sqref>I544</xm:sqref>
+              <xm:f>'AF SODECI'!D334:H334</xm:f>
+              <xm:sqref>I334</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C545:H545</xm:f>
-              <xm:sqref>I545</xm:sqref>
+              <xm:f>'AF SODECI'!D335:H335</xm:f>
+              <xm:sqref>I335</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C546:H546</xm:f>
-              <xm:sqref>I546</xm:sqref>
+              <xm:f>'AF SODECI'!D336:H336</xm:f>
+              <xm:sqref>I336</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C547:H547</xm:f>
-              <xm:sqref>I547</xm:sqref>
+              <xm:f>'AF SODECI'!D337:H337</xm:f>
+              <xm:sqref>I337</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C548:H548</xm:f>
-              <xm:sqref>I548</xm:sqref>
+              <xm:f>'AF SODECI'!D338:H338</xm:f>
+              <xm:sqref>I338</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C549:H549</xm:f>
-              <xm:sqref>I549</xm:sqref>
+              <xm:f>'AF SODECI'!D339:H339</xm:f>
+              <xm:sqref>I339</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C550:H550</xm:f>
-              <xm:sqref>I550</xm:sqref>
+              <xm:f>'AF SODECI'!D340:H340</xm:f>
+              <xm:sqref>I340</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C551:H551</xm:f>
-              <xm:sqref>I551</xm:sqref>
+              <xm:f>'AF SODECI'!D341:H341</xm:f>
+              <xm:sqref>I341</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C552:H552</xm:f>
-              <xm:sqref>I552</xm:sqref>
+              <xm:f>'AF SODECI'!D342:H342</xm:f>
+              <xm:sqref>I342</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C553:H553</xm:f>
-              <xm:sqref>I553</xm:sqref>
+              <xm:f>'AF SODECI'!D343:H343</xm:f>
+              <xm:sqref>I343</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C554:H554</xm:f>
-              <xm:sqref>I554</xm:sqref>
+              <xm:f>'AF SODECI'!D344:H344</xm:f>
+              <xm:sqref>I344</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C555:H555</xm:f>
-              <xm:sqref>I555</xm:sqref>
+              <xm:f>'AF SODECI'!D345:H345</xm:f>
+              <xm:sqref>I345</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C556:H556</xm:f>
-              <xm:sqref>I556</xm:sqref>
+              <xm:f>'AF SODECI'!D346:H346</xm:f>
+              <xm:sqref>I346</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C557:H557</xm:f>
-              <xm:sqref>I557</xm:sqref>
+              <xm:f>'AF SODECI'!D347:H347</xm:f>
+              <xm:sqref>I347</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D348:H348</xm:f>
+              <xm:sqref>I348</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D349:H349</xm:f>
+              <xm:sqref>I349</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D350:H350</xm:f>
+              <xm:sqref>I350</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D351:H351</xm:f>
+              <xm:sqref>I351</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D352:H352</xm:f>
+              <xm:sqref>I352</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D353:H353</xm:f>
+              <xm:sqref>I353</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D354:H354</xm:f>
+              <xm:sqref>I354</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D355:H355</xm:f>
+              <xm:sqref>I355</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D356:H356</xm:f>
+              <xm:sqref>I356</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D357:H357</xm:f>
+              <xm:sqref>I357</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D358:H358</xm:f>
+              <xm:sqref>I358</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D359:H359</xm:f>
+              <xm:sqref>I359</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D360:H360</xm:f>
+              <xm:sqref>I360</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D361:H361</xm:f>
+              <xm:sqref>I361</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D362:H362</xm:f>
+              <xm:sqref>I362</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D363:H363</xm:f>
+              <xm:sqref>I363</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D364:H364</xm:f>
+              <xm:sqref>I364</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D365:H365</xm:f>
+              <xm:sqref>I365</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D366:H366</xm:f>
+              <xm:sqref>I366</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D367:H367</xm:f>
+              <xm:sqref>I367</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!D368:H368</xm:f>
+              <xm:sqref>I368</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C264:H264</xm:f>
+              <xm:sqref>I264</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C265:H265</xm:f>
+              <xm:sqref>I265</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C266:H266</xm:f>
+              <xm:sqref>I266</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C267:H267</xm:f>
+              <xm:sqref>I267</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C268:H268</xm:f>
+              <xm:sqref>I268</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C269:H269</xm:f>
+              <xm:sqref>I269</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C270:H270</xm:f>
+              <xm:sqref>I270</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C271:H271</xm:f>
+              <xm:sqref>I271</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C272:H272</xm:f>
+              <xm:sqref>I272</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C273:H273</xm:f>
+              <xm:sqref>I273</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C274:H274</xm:f>
+              <xm:sqref>I274</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C275:H275</xm:f>
+              <xm:sqref>I275</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C276:H276</xm:f>
+              <xm:sqref>I276</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C277:H277</xm:f>
+              <xm:sqref>I277</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C278:H278</xm:f>
+              <xm:sqref>I278</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C279:H279</xm:f>
+              <xm:sqref>I279</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C280:H280</xm:f>
+              <xm:sqref>I280</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C281:H281</xm:f>
+              <xm:sqref>I281</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C282:H282</xm:f>
+              <xm:sqref>I282</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C283:H283</xm:f>
+              <xm:sqref>I283</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C284:H284</xm:f>
+              <xm:sqref>I284</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C285:H285</xm:f>
+              <xm:sqref>I285</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C286:H286</xm:f>
+              <xm:sqref>I286</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C287:H287</xm:f>
+              <xm:sqref>I287</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C288:H288</xm:f>
+              <xm:sqref>I288</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C289:H289</xm:f>
+              <xm:sqref>I289</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C290:H290</xm:f>
+              <xm:sqref>I290</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C291:H291</xm:f>
+              <xm:sqref>I291</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C292:H292</xm:f>
+              <xm:sqref>I292</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C293:H293</xm:f>
+              <xm:sqref>I293</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C294:H294</xm:f>
+              <xm:sqref>I294</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C295:H295</xm:f>
+              <xm:sqref>I295</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C296:H296</xm:f>
+              <xm:sqref>I296</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C297:H297</xm:f>
+              <xm:sqref>I297</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C298:H298</xm:f>
+              <xm:sqref>I298</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C299:H299</xm:f>
+              <xm:sqref>I299</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C300:H300</xm:f>
+              <xm:sqref>I300</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C301:H301</xm:f>
+              <xm:sqref>I301</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C302:H302</xm:f>
+              <xm:sqref>I302</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C303:H303</xm:f>
+              <xm:sqref>I303</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C304:H304</xm:f>
+              <xm:sqref>I304</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C305:H305</xm:f>
+              <xm:sqref>I305</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C306:H306</xm:f>
+              <xm:sqref>I306</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C307:H307</xm:f>
+              <xm:sqref>I307</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C308:H308</xm:f>
+              <xm:sqref>I308</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C309:H309</xm:f>
+              <xm:sqref>I309</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C310:H310</xm:f>
+              <xm:sqref>I310</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C311:H311</xm:f>
+              <xm:sqref>I311</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C312:H312</xm:f>
+              <xm:sqref>I312</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C313:H313</xm:f>
+              <xm:sqref>I313</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'AF SODECI'!C314:H314</xm:f>
+              <xm:sqref>I314</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -47889,7 +48529,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{CFC06DEE-073B-4FC8-A1D1-8AB69A8BF028}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{28447143-C27A-4ADB-B1FF-D54CEA0A276D}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -47900,212 +48540,128 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C264:H264</xm:f>
-              <xm:sqref>I264</xm:sqref>
+              <xm:f>'AF SODECI'!C528:H528</xm:f>
+              <xm:sqref>I528</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C265:H265</xm:f>
-              <xm:sqref>I265</xm:sqref>
+              <xm:f>'AF SODECI'!C529:H529</xm:f>
+              <xm:sqref>I529</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C266:H266</xm:f>
-              <xm:sqref>I266</xm:sqref>
+              <xm:f>'AF SODECI'!C530:H530</xm:f>
+              <xm:sqref>I530</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C267:H267</xm:f>
-              <xm:sqref>I267</xm:sqref>
+              <xm:f>'AF SODECI'!C531:H531</xm:f>
+              <xm:sqref>I531</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C268:H268</xm:f>
-              <xm:sqref>I268</xm:sqref>
+              <xm:f>'AF SODECI'!C532:H532</xm:f>
+              <xm:sqref>I532</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C269:H269</xm:f>
-              <xm:sqref>I269</xm:sqref>
+              <xm:f>'AF SODECI'!C533:H533</xm:f>
+              <xm:sqref>I533</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C270:H270</xm:f>
-              <xm:sqref>I270</xm:sqref>
+              <xm:f>'AF SODECI'!C534:H534</xm:f>
+              <xm:sqref>I534</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C271:H271</xm:f>
-              <xm:sqref>I271</xm:sqref>
+              <xm:f>'AF SODECI'!C535:H535</xm:f>
+              <xm:sqref>I535</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C272:H272</xm:f>
-              <xm:sqref>I272</xm:sqref>
+              <xm:f>'AF SODECI'!C536:H536</xm:f>
+              <xm:sqref>I536</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C273:H273</xm:f>
-              <xm:sqref>I273</xm:sqref>
+              <xm:f>'AF SODECI'!C537:H537</xm:f>
+              <xm:sqref>I537</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C274:H274</xm:f>
-              <xm:sqref>I274</xm:sqref>
+              <xm:f>'AF SODECI'!C538:H538</xm:f>
+              <xm:sqref>I538</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C275:H275</xm:f>
-              <xm:sqref>I275</xm:sqref>
+              <xm:f>'AF SODECI'!C539:H539</xm:f>
+              <xm:sqref>I539</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C276:H276</xm:f>
-              <xm:sqref>I276</xm:sqref>
+              <xm:f>'AF SODECI'!C540:H540</xm:f>
+              <xm:sqref>I540</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C277:H277</xm:f>
-              <xm:sqref>I277</xm:sqref>
+              <xm:f>'AF SODECI'!C541:H541</xm:f>
+              <xm:sqref>I541</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C278:H278</xm:f>
-              <xm:sqref>I278</xm:sqref>
+              <xm:f>'AF SODECI'!C542:H542</xm:f>
+              <xm:sqref>I542</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C279:H279</xm:f>
-              <xm:sqref>I279</xm:sqref>
+              <xm:f>'AF SODECI'!C543:H543</xm:f>
+              <xm:sqref>I543</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C280:H280</xm:f>
-              <xm:sqref>I280</xm:sqref>
+              <xm:f>'AF SODECI'!C544:H544</xm:f>
+              <xm:sqref>I544</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C281:H281</xm:f>
-              <xm:sqref>I281</xm:sqref>
+              <xm:f>'AF SODECI'!C545:H545</xm:f>
+              <xm:sqref>I545</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C282:H282</xm:f>
-              <xm:sqref>I282</xm:sqref>
+              <xm:f>'AF SODECI'!C546:H546</xm:f>
+              <xm:sqref>I546</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C283:H283</xm:f>
-              <xm:sqref>I283</xm:sqref>
+              <xm:f>'AF SODECI'!C547:H547</xm:f>
+              <xm:sqref>I547</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C284:H284</xm:f>
-              <xm:sqref>I284</xm:sqref>
+              <xm:f>'AF SODECI'!C548:H548</xm:f>
+              <xm:sqref>I548</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C285:H285</xm:f>
-              <xm:sqref>I285</xm:sqref>
+              <xm:f>'AF SODECI'!C549:H549</xm:f>
+              <xm:sqref>I549</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C286:H286</xm:f>
-              <xm:sqref>I286</xm:sqref>
+              <xm:f>'AF SODECI'!C550:H550</xm:f>
+              <xm:sqref>I550</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C287:H287</xm:f>
-              <xm:sqref>I287</xm:sqref>
+              <xm:f>'AF SODECI'!C551:H551</xm:f>
+              <xm:sqref>I551</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C288:H288</xm:f>
-              <xm:sqref>I288</xm:sqref>
+              <xm:f>'AF SODECI'!C552:H552</xm:f>
+              <xm:sqref>I552</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C289:H289</xm:f>
-              <xm:sqref>I289</xm:sqref>
+              <xm:f>'AF SODECI'!C553:H553</xm:f>
+              <xm:sqref>I553</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C290:H290</xm:f>
-              <xm:sqref>I290</xm:sqref>
+              <xm:f>'AF SODECI'!C554:H554</xm:f>
+              <xm:sqref>I554</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C291:H291</xm:f>
-              <xm:sqref>I291</xm:sqref>
+              <xm:f>'AF SODECI'!C555:H555</xm:f>
+              <xm:sqref>I555</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C292:H292</xm:f>
-              <xm:sqref>I292</xm:sqref>
+              <xm:f>'AF SODECI'!C556:H556</xm:f>
+              <xm:sqref>I556</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!C293:H293</xm:f>
-              <xm:sqref>I293</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C294:H294</xm:f>
-              <xm:sqref>I294</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C295:H295</xm:f>
-              <xm:sqref>I295</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C296:H296</xm:f>
-              <xm:sqref>I296</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C297:H297</xm:f>
-              <xm:sqref>I297</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C298:H298</xm:f>
-              <xm:sqref>I298</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C299:H299</xm:f>
-              <xm:sqref>I299</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C300:H300</xm:f>
-              <xm:sqref>I300</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C301:H301</xm:f>
-              <xm:sqref>I301</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C302:H302</xm:f>
-              <xm:sqref>I302</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C303:H303</xm:f>
-              <xm:sqref>I303</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C304:H304</xm:f>
-              <xm:sqref>I304</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C305:H305</xm:f>
-              <xm:sqref>I305</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C306:H306</xm:f>
-              <xm:sqref>I306</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C307:H307</xm:f>
-              <xm:sqref>I307</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C308:H308</xm:f>
-              <xm:sqref>I308</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C309:H309</xm:f>
-              <xm:sqref>I309</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C310:H310</xm:f>
-              <xm:sqref>I310</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C311:H311</xm:f>
-              <xm:sqref>I311</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C312:H312</xm:f>
-              <xm:sqref>I312</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C313:H313</xm:f>
-              <xm:sqref>I313</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C314:H314</xm:f>
-              <xm:sqref>I314</xm:sqref>
+              <xm:f>'AF SODECI'!C557:H557</xm:f>
+              <xm:sqref>I557</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{60EF3429-85CA-4EB0-9132-F02B9AC82763}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2338F73D-6D35-4BF9-A933-3BB3964FA09B}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -48116,504 +48672,124 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D318:H318</xm:f>
-              <xm:sqref>I318</xm:sqref>
+              <xm:f>'AF SODECI'!D561:H561</xm:f>
+              <xm:sqref>I561</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D319:H319</xm:f>
-              <xm:sqref>I319</xm:sqref>
+              <xm:f>'AF SODECI'!D562:H562</xm:f>
+              <xm:sqref>I562</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D320:H320</xm:f>
-              <xm:sqref>I320</xm:sqref>
+              <xm:f>'AF SODECI'!D563:H563</xm:f>
+              <xm:sqref>I563</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D321:H321</xm:f>
-              <xm:sqref>I321</xm:sqref>
+              <xm:f>'AF SODECI'!D564:H564</xm:f>
+              <xm:sqref>I564</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D322:H322</xm:f>
-              <xm:sqref>I322</xm:sqref>
+              <xm:f>'AF SODECI'!D565:H565</xm:f>
+              <xm:sqref>I565</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D323:H323</xm:f>
-              <xm:sqref>I323</xm:sqref>
+              <xm:f>'AF SODECI'!D566:H566</xm:f>
+              <xm:sqref>I566</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D324:H324</xm:f>
-              <xm:sqref>I324</xm:sqref>
+              <xm:f>'AF SODECI'!D567:H567</xm:f>
+              <xm:sqref>I567</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D325:H325</xm:f>
-              <xm:sqref>I325</xm:sqref>
+              <xm:f>'AF SODECI'!D568:H568</xm:f>
+              <xm:sqref>I568</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D326:H326</xm:f>
-              <xm:sqref>I326</xm:sqref>
+              <xm:f>'AF SODECI'!D569:H569</xm:f>
+              <xm:sqref>I569</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D327:H327</xm:f>
-              <xm:sqref>I327</xm:sqref>
+              <xm:f>'AF SODECI'!D570:H570</xm:f>
+              <xm:sqref>I570</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D328:H328</xm:f>
-              <xm:sqref>I328</xm:sqref>
+              <xm:f>'AF SODECI'!D571:H571</xm:f>
+              <xm:sqref>I571</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D329:H329</xm:f>
-              <xm:sqref>I329</xm:sqref>
+              <xm:f>'AF SODECI'!D572:H572</xm:f>
+              <xm:sqref>I572</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D330:H330</xm:f>
-              <xm:sqref>I330</xm:sqref>
+              <xm:f>'AF SODECI'!D573:H573</xm:f>
+              <xm:sqref>I573</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D331:H331</xm:f>
-              <xm:sqref>I331</xm:sqref>
+              <xm:f>'AF SODECI'!D574:H574</xm:f>
+              <xm:sqref>I574</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D332:H332</xm:f>
-              <xm:sqref>I332</xm:sqref>
+              <xm:f>'AF SODECI'!D575:H575</xm:f>
+              <xm:sqref>I575</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D333:H333</xm:f>
-              <xm:sqref>I333</xm:sqref>
+              <xm:f>'AF SODECI'!D576:H576</xm:f>
+              <xm:sqref>I576</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D334:H334</xm:f>
-              <xm:sqref>I334</xm:sqref>
+              <xm:f>'AF SODECI'!D577:H577</xm:f>
+              <xm:sqref>I577</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D335:H335</xm:f>
-              <xm:sqref>I335</xm:sqref>
+              <xm:f>'AF SODECI'!D578:H578</xm:f>
+              <xm:sqref>I578</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D336:H336</xm:f>
-              <xm:sqref>I336</xm:sqref>
+              <xm:f>'AF SODECI'!D579:H579</xm:f>
+              <xm:sqref>I579</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D337:H337</xm:f>
-              <xm:sqref>I337</xm:sqref>
+              <xm:f>'AF SODECI'!D580:H580</xm:f>
+              <xm:sqref>I580</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D338:H338</xm:f>
-              <xm:sqref>I338</xm:sqref>
+              <xm:f>'AF SODECI'!D581:H581</xm:f>
+              <xm:sqref>I581</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D339:H339</xm:f>
-              <xm:sqref>I339</xm:sqref>
+              <xm:f>'AF SODECI'!D582:H582</xm:f>
+              <xm:sqref>I582</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D340:H340</xm:f>
-              <xm:sqref>I340</xm:sqref>
+              <xm:f>'AF SODECI'!D583:H583</xm:f>
+              <xm:sqref>I583</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D341:H341</xm:f>
-              <xm:sqref>I341</xm:sqref>
+              <xm:f>'AF SODECI'!D584:H584</xm:f>
+              <xm:sqref>I584</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D342:H342</xm:f>
-              <xm:sqref>I342</xm:sqref>
+              <xm:f>'AF SODECI'!D585:H585</xm:f>
+              <xm:sqref>I585</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D343:H343</xm:f>
-              <xm:sqref>I343</xm:sqref>
+              <xm:f>'AF SODECI'!D586:H586</xm:f>
+              <xm:sqref>I586</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D344:H344</xm:f>
-              <xm:sqref>I344</xm:sqref>
+              <xm:f>'AF SODECI'!D587:H587</xm:f>
+              <xm:sqref>I587</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D345:H345</xm:f>
-              <xm:sqref>I345</xm:sqref>
+              <xm:f>'AF SODECI'!D588:H588</xm:f>
+              <xm:sqref>I588</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D346:H346</xm:f>
-              <xm:sqref>I346</xm:sqref>
+              <xm:f>'AF SODECI'!D589:H589</xm:f>
+              <xm:sqref>I589</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'AF SODECI'!D347:H347</xm:f>
-              <xm:sqref>I347</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D348:H348</xm:f>
-              <xm:sqref>I348</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D349:H349</xm:f>
-              <xm:sqref>I349</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D350:H350</xm:f>
-              <xm:sqref>I350</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D351:H351</xm:f>
-              <xm:sqref>I351</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D352:H352</xm:f>
-              <xm:sqref>I352</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D353:H353</xm:f>
-              <xm:sqref>I353</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D354:H354</xm:f>
-              <xm:sqref>I354</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D355:H355</xm:f>
-              <xm:sqref>I355</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D356:H356</xm:f>
-              <xm:sqref>I356</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D357:H357</xm:f>
-              <xm:sqref>I357</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D358:H358</xm:f>
-              <xm:sqref>I358</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D359:H359</xm:f>
-              <xm:sqref>I359</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D360:H360</xm:f>
-              <xm:sqref>I360</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D361:H361</xm:f>
-              <xm:sqref>I361</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D362:H362</xm:f>
-              <xm:sqref>I362</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D363:H363</xm:f>
-              <xm:sqref>I363</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D364:H364</xm:f>
-              <xm:sqref>I364</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D365:H365</xm:f>
-              <xm:sqref>I365</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D366:H366</xm:f>
-              <xm:sqref>I366</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D367:H367</xm:f>
-              <xm:sqref>I367</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!D368:H368</xm:f>
-              <xm:sqref>I368</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{FBCE7CFD-F704-4517-AB2F-245905B4CC09}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C376:H376</xm:f>
-              <xm:sqref>I376</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C377:H377</xm:f>
-              <xm:sqref>I377</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C378:H378</xm:f>
-              <xm:sqref>I378</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C379:H379</xm:f>
-              <xm:sqref>I379</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C380:H380</xm:f>
-              <xm:sqref>I380</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C381:H381</xm:f>
-              <xm:sqref>I381</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C382:H382</xm:f>
-              <xm:sqref>I382</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C383:H383</xm:f>
-              <xm:sqref>I383</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C384:H384</xm:f>
-              <xm:sqref>I384</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C385:H385</xm:f>
-              <xm:sqref>I385</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C386:H386</xm:f>
-              <xm:sqref>I386</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C387:H387</xm:f>
-              <xm:sqref>I387</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C388:H388</xm:f>
-              <xm:sqref>I388</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C389:H389</xm:f>
-              <xm:sqref>I389</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C390:H390</xm:f>
-              <xm:sqref>I390</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C391:H391</xm:f>
-              <xm:sqref>I391</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C392:H392</xm:f>
-              <xm:sqref>I392</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C393:H393</xm:f>
-              <xm:sqref>I393</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C394:H394</xm:f>
-              <xm:sqref>I394</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C395:H395</xm:f>
-              <xm:sqref>I395</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C396:H396</xm:f>
-              <xm:sqref>I396</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C397:H397</xm:f>
-              <xm:sqref>I397</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C398:H398</xm:f>
-              <xm:sqref>I398</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C399:H399</xm:f>
-              <xm:sqref>I399</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C400:H400</xm:f>
-              <xm:sqref>I400</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C401:H401</xm:f>
-              <xm:sqref>I401</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C402:H402</xm:f>
-              <xm:sqref>I402</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C403:H403</xm:f>
-              <xm:sqref>I403</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C404:H404</xm:f>
-              <xm:sqref>I404</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C405:H405</xm:f>
-              <xm:sqref>I405</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C406:H406</xm:f>
-              <xm:sqref>I406</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C407:H407</xm:f>
-              <xm:sqref>I407</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C408:H408</xm:f>
-              <xm:sqref>I408</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C409:H409</xm:f>
-              <xm:sqref>I409</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C410:H410</xm:f>
-              <xm:sqref>I410</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C411:H411</xm:f>
-              <xm:sqref>I411</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C412:H412</xm:f>
-              <xm:sqref>I412</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C413:H413</xm:f>
-              <xm:sqref>I413</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C414:H414</xm:f>
-              <xm:sqref>I414</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C415:H415</xm:f>
-              <xm:sqref>I415</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C416:H416</xm:f>
-              <xm:sqref>I416</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C417:H417</xm:f>
-              <xm:sqref>I417</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C418:H418</xm:f>
-              <xm:sqref>I418</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C419:H419</xm:f>
-              <xm:sqref>I419</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C420:H420</xm:f>
-              <xm:sqref>I420</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C421:H421</xm:f>
-              <xm:sqref>I421</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C422:H422</xm:f>
-              <xm:sqref>I422</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C423:H423</xm:f>
-              <xm:sqref>I423</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C424:H424</xm:f>
-              <xm:sqref>I424</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C425:H425</xm:f>
-              <xm:sqref>I425</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C426:H426</xm:f>
-              <xm:sqref>I426</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C427:H427</xm:f>
-              <xm:sqref>I427</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C428:H428</xm:f>
-              <xm:sqref>I428</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C429:H429</xm:f>
-              <xm:sqref>I429</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C430:H430</xm:f>
-              <xm:sqref>I430</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C431:H431</xm:f>
-              <xm:sqref>I431</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C432:H432</xm:f>
-              <xm:sqref>I432</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C433:H433</xm:f>
-              <xm:sqref>I433</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C434:H434</xm:f>
-              <xm:sqref>I434</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C435:H435</xm:f>
-              <xm:sqref>I435</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C436:H436</xm:f>
-              <xm:sqref>I436</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C437:H437</xm:f>
-              <xm:sqref>I437</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C438:H438</xm:f>
-              <xm:sqref>I438</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C439:H439</xm:f>
-              <xm:sqref>I439</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C440:H440</xm:f>
-              <xm:sqref>I440</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C441:H441</xm:f>
-              <xm:sqref>I441</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C442:H442</xm:f>
-              <xm:sqref>I442</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C443:H443</xm:f>
-              <xm:sqref>I443</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C444:H444</xm:f>
-              <xm:sqref>I444</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C445:H445</xm:f>
-              <xm:sqref>I445</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'AF SODECI'!C446:H446</xm:f>
-              <xm:sqref>I446</xm:sqref>
+              <xm:f>'AF SODECI'!D590:H590</xm:f>
+              <xm:sqref>I590</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
